--- a/fastqFiles/fastq_fullrun_hbrown_10.31.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_10.31.19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/Desktop/4a metadata sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECE03EFC-3597-FF44-B812-F1B2D154F520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68D38D2-BF5C-5042-A611-0F741EB024DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="7880" windowWidth="19200" windowHeight="11520" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="82">
   <si>
     <t>libraryDate</t>
   </si>
@@ -192,13 +192,97 @@
   </si>
   <si>
     <t>Brent_4a_GTAC_36_SIC_Index2_07_TGGCATA_GAGTTGGT_S63_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_10_SIC_Index2_06_GGCAGCG_GACCTTGT_S11_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_11_SIC_Index2_06_CCATCAT_GACCTTGT_S12_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_12_SIC_Index2_06_TAACAAG_GACCTTGT_S13_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_13_SIC_Index2_06_GAGGCGT_GACCTTGT_S14_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_14_SIC_Index2_06_TTTAACT_GACCTTGT_S15_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_15_SIC_Index2_06_GGTCCTC_GACCTTGT_S16_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_16_SIC_Index2_06_CGGTGGC_GACCTTGT_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_17_SIC_Index2_06_ACTGTCG_GACCTTGT_S18_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_18_SIC_Index2_06_GTATTTG_GACCTTGT_S19_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_19_SIC_Index2_06_GAGTACG_GACCTTGT_S20_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_1_SIC_Index2_06_TGAGGTT_GACCTTGT_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_20_SIC_Index2_06_ACAGATA_GACCTTGT_S21_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_21_SIC_Index2_06_CTCAATG_GACCTTGT_S22_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_22_SIC_Index2_06_AAATGCA_GACCTTGT_S23_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_23_SIC_Index2_06_ACGCGGG_GACCTTGT_S24_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_24_SIC_Index2_06_GGAGTCC_GACCTTGT_S25_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_25_SIC_Index2_06_CGTCGCT_GACCTTGT_S26_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_26_SIC_Index2_06_TCAACTG_GACCTTGT_S27_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_2_SIC_Index2_06_GCTTAGA_GACCTTGT_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_3_SIC_Index2_06_ATGACAG_GACCTTGT_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_4_SIC_Index2_06_CACCTCC_GACCTTGT_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_5_SIC_Index2_06_ATCGAGC_GACCTTGT_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_6_SIC_Index2_06_TACTCTA_GACCTTGT_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_7_SIC_Index2_06_AGACTGA_GACCTTGT_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_8_SIC_Index2_06_CTTGGAA_GACCTTGT_S9_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_9_SIC_Index2_06_CCGATTA_GACCTTGT_S10_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>MidHighput</t>
+  </si>
+  <si>
+    <t>08.15.19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,6 +325,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,6 +376,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,13 +693,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CA217D-0C43-0B40-A462-5F05C8B33EE8}">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M37"/>
+      <selection activeCell="A28" sqref="A28:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -654,9 +756,9 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -672,22 +774,22 @@
         <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
+      <c r="I2">
+        <v>4.7</v>
       </c>
       <c r="J2" s="6">
-        <v>0.49476970625597511</v>
-      </c>
-      <c r="K2" s="7">
-        <v>14700309</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>18</v>
+        <v>1.6903100532414659</v>
+      </c>
+      <c r="K2" s="10">
+        <v>8367714</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -704,1219 +806,2216 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>3993</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="D3" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>1.2328716877692207</v>
+      </c>
+      <c r="K3" s="10">
+        <v>6768054</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>43.2</v>
+      </c>
+      <c r="J4">
+        <v>1.2014284805698658</v>
+      </c>
+      <c r="K4" s="10">
+        <v>8564064</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>5.66</v>
+      </c>
+      <c r="J5">
+        <v>0.4884263995983385</v>
+      </c>
+      <c r="K5" s="10">
+        <v>14805356</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>3.55</v>
+      </c>
+      <c r="J6">
+        <v>0.64030704811761685</v>
+      </c>
+      <c r="K6" s="10">
+        <v>6911361</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>9.9</v>
+      </c>
+      <c r="J7">
+        <v>0.24796450535241962</v>
+      </c>
+      <c r="K7" s="10">
+        <v>14103190</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>1.25</v>
+      </c>
+      <c r="J8">
+        <v>7.5181326116373484</v>
+      </c>
+      <c r="K8" s="10">
+        <v>7305097</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>5.03</v>
+      </c>
+      <c r="J9">
+        <v>1.9527241707822944</v>
+      </c>
+      <c r="K9" s="10">
+        <v>8605604</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>26.8</v>
+      </c>
+      <c r="J10">
+        <v>0.79396687962340284</v>
+      </c>
+      <c r="K10" s="10">
+        <v>5626777</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>0.9270285125386466</v>
+      </c>
+      <c r="K11" s="10">
+        <v>6109941</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>58</v>
+      </c>
+      <c r="J12">
+        <v>1.0143948018472775</v>
+      </c>
+      <c r="K12" s="10">
+        <v>6816187</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>25.1</v>
+      </c>
+      <c r="J13">
+        <v>0.9463483793397125</v>
+      </c>
+      <c r="K13" s="10">
+        <v>4992167</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>16.8</v>
+      </c>
+      <c r="J14">
+        <v>0.93496634329835682</v>
+      </c>
+      <c r="K14" s="10">
+        <v>8687308</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1850160</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>26</v>
+      </c>
+      <c r="J16">
+        <v>1.0181674122783377</v>
+      </c>
+      <c r="K16" s="10">
+        <v>7087089</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>10.7</v>
+      </c>
+      <c r="J17">
+        <v>1.0335008595154545</v>
+      </c>
+      <c r="K17" s="10">
+        <v>7715340</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
         <v>17</v>
       </c>
-      <c r="K3">
+      <c r="D18" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18">
+        <v>23.9</v>
+      </c>
+      <c r="J18">
+        <v>0.82956655395019985</v>
+      </c>
+      <c r="K18" s="10">
+        <v>6896431</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>32</v>
+      </c>
+      <c r="J19">
+        <v>1.2494252265361467</v>
+      </c>
+      <c r="K19" s="10">
+        <v>6810270</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <v>2.25</v>
+      </c>
+      <c r="J20">
+        <v>5.1220683437387731</v>
+      </c>
+      <c r="K20" s="10">
+        <v>9405571</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="J21">
+        <v>1.6583678306106864</v>
+      </c>
+      <c r="K21" s="10">
+        <v>3758051</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22">
+        <v>0.36</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1197</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="K23" s="10">
+        <v>7185</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="K24" s="10">
+        <v>3953</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3">
+        <v>24</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>0.32</v>
+      </c>
+      <c r="K25" s="10">
+        <v>5673</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>1.1180858242083458</v>
+      </c>
+      <c r="K26" s="10">
+        <v>8532260</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3">
+        <v>26</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27">
+        <v>4.8</v>
+      </c>
+      <c r="K27" s="10">
+        <v>13757898</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3993</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.49476970625597511</v>
+      </c>
+      <c r="K28" s="7">
+        <v>14700309</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>3993</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29">
         <v>7759</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
+      <c r="U29" s="9"/>
+      <c r="V29" s="10"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>3993</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4">
+      <c r="D30">
+        <v>3993</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30">
         <v>85.9</v>
       </c>
-      <c r="J4">
+      <c r="J30">
         <v>5</v>
       </c>
-      <c r="K4">
+      <c r="K30">
         <v>3673087</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
+      <c r="U30" s="9"/>
+      <c r="V30" s="10"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>3993</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="D31">
+        <v>3993</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
         <v>17</v>
       </c>
-      <c r="J5">
+      <c r="J31">
         <v>0.64394273052667461</v>
       </c>
-      <c r="K5">
+      <c r="K31">
         <v>7651086</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
+      <c r="U31" s="9"/>
+      <c r="V31" s="10"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>3993</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6">
+      <c r="D32">
+        <v>3993</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32">
         <v>252</v>
       </c>
-      <c r="J6">
+      <c r="J32">
         <v>6.6118515925796295</v>
       </c>
-      <c r="K6">
+      <c r="K32">
         <v>3211556</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L32" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
+      <c r="U32" s="9"/>
+      <c r="V32" s="10"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>3993</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7">
+      <c r="D33">
+        <v>3993</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33">
         <v>153</v>
       </c>
-      <c r="J7">
+      <c r="J33">
         <v>8.1881491114000866</v>
       </c>
-      <c r="K7">
+      <c r="K33">
         <v>4764788</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
+      <c r="U33" s="9"/>
+      <c r="V33" s="10"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>3993</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8">
+      <c r="D34">
+        <v>3993</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34">
         <v>27.8</v>
       </c>
-      <c r="J8">
+      <c r="J34">
         <v>6.3731646423751691</v>
       </c>
-      <c r="K8">
+      <c r="K34">
         <v>5795801</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
+      <c r="U34" s="9"/>
+      <c r="V34" s="10"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>3993</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9">
+      <c r="D35">
+        <v>3993</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35">
         <v>49.7</v>
       </c>
-      <c r="J9">
+      <c r="J35">
         <v>7.1283245283018877</v>
       </c>
-      <c r="K9">
+      <c r="K35">
         <v>4712895</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L35" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
+      <c r="U35" s="9"/>
+      <c r="V35" s="10"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
         <v>9</v>
       </c>
-      <c r="D10">
-        <v>3993</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10">
+      <c r="D36">
+        <v>3993</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36">
         <v>78.8</v>
       </c>
-      <c r="J10">
+      <c r="J36">
         <v>6.7901006470165353</v>
       </c>
-      <c r="K10">
+      <c r="K36">
         <v>4865879</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L36" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
+      <c r="U36" s="9"/>
+      <c r="V36" s="10"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>3993</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11">
+      <c r="D37">
+        <v>3993</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37">
         <v>67.099999999999994</v>
       </c>
-      <c r="J11">
+      <c r="J37">
         <v>7.313224932249323</v>
       </c>
-      <c r="K11">
+      <c r="K37">
         <v>5100151</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
+      <c r="U37" s="9"/>
+      <c r="V37" s="10"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>3993</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12">
+      <c r="D38">
+        <v>3993</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38">
         <v>155</v>
       </c>
-      <c r="J12">
+      <c r="J38">
         <v>6.5522233784252517</v>
       </c>
-      <c r="K12">
+      <c r="K38">
         <v>4337625</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L38" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>3993</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13">
+      <c r="U38" s="9"/>
+      <c r="V38" s="10"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>3993</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39">
         <v>298</v>
       </c>
-      <c r="J13">
+      <c r="J39">
         <v>9.4167796610169496</v>
       </c>
-      <c r="K13">
+      <c r="K39">
         <v>3296083</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L39" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>3993</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14">
+      <c r="U39" s="9"/>
+      <c r="V39" s="10"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>3993</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40">
         <v>13.2</v>
       </c>
-      <c r="J14">
+      <c r="J40">
         <v>5.5887751479289944</v>
       </c>
-      <c r="K14">
+      <c r="K40">
         <v>4556518</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L40" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>3993</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15">
+      <c r="U40" s="9"/>
+      <c r="V40" s="10"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>3993</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41">
         <v>3.51</v>
       </c>
-      <c r="J15">
+      <c r="J41">
         <v>13.474670695501944</v>
       </c>
-      <c r="K15">
+      <c r="K41">
         <v>2740739</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L41" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>3993</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="U41" s="9"/>
+      <c r="V41" s="10"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>3993</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
         <v>17</v>
       </c>
-      <c r="J16">
+      <c r="J42">
         <v>0.60955340432397553</v>
       </c>
-      <c r="K16">
+      <c r="K42">
         <v>9722870</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L42" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>3993</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17">
+      <c r="U42" s="9"/>
+      <c r="V42" s="11"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>3993</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43">
         <v>12.5</v>
       </c>
-      <c r="J17">
+      <c r="J43">
         <v>1.0396862788265728</v>
       </c>
-      <c r="K17">
+      <c r="K43">
         <v>6048438</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
         <v>17</v>
       </c>
-      <c r="D18">
-        <v>3993</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18">
+      <c r="D44">
+        <v>3993</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44">
         <v>17.3</v>
       </c>
-      <c r="J18">
+      <c r="J44">
         <v>1.0118952217698736</v>
       </c>
-      <c r="K18">
+      <c r="K44">
         <v>6939601</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45">
         <v>18</v>
       </c>
-      <c r="D19">
-        <v>3993</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19">
+      <c r="D45">
+        <v>3993</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45">
         <v>8.91</v>
       </c>
-      <c r="J19">
+      <c r="J45">
         <v>1.1959028208276103</v>
       </c>
-      <c r="K19">
+      <c r="K45">
         <v>7347060</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46">
         <v>19</v>
       </c>
-      <c r="D20">
-        <v>3993</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20">
+      <c r="D46">
+        <v>3993</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46">
         <v>7.43</v>
       </c>
-      <c r="J20">
+      <c r="J46">
         <v>1.6486633606809264</v>
       </c>
-      <c r="K20">
+      <c r="K46">
         <v>5521155</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47">
         <v>20</v>
       </c>
-      <c r="D21">
-        <v>3993</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21">
+      <c r="D47">
+        <v>3993</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47">
         <v>3.79</v>
       </c>
-      <c r="J21">
+      <c r="J47">
         <v>2.9179700817106262</v>
       </c>
-      <c r="K21">
+      <c r="K47">
         <v>5138175</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
         <v>21</v>
       </c>
-      <c r="D22">
-        <v>3993</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22">
+      <c r="D48">
+        <v>3993</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48">
         <v>0.23599999999999999</v>
       </c>
-      <c r="K22">
+      <c r="K48">
         <v>1895</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L48" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49">
         <v>22</v>
       </c>
-      <c r="D23">
-        <v>3993</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23">
+      <c r="D49">
+        <v>3993</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49">
         <v>1.1399999999999999</v>
       </c>
-      <c r="J23">
+      <c r="J49">
         <v>8.9685744807121672</v>
       </c>
-      <c r="K23">
+      <c r="K49">
         <v>3561994</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50">
         <v>23</v>
       </c>
-      <c r="D24">
-        <v>3993</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="D50">
+        <v>3993</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
         <v>17</v>
       </c>
-      <c r="J24">
+      <c r="J50">
         <v>6.2945884705098303</v>
       </c>
-      <c r="K24">
+      <c r="K50">
         <v>5965762</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L50" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
         <v>24</v>
       </c>
-      <c r="D25">
-        <v>3993</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25">
+      <c r="D51">
+        <v>3993</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51">
         <v>1.1399999999999999</v>
       </c>
-      <c r="J25">
+      <c r="J51">
         <v>10.427855368479161</v>
       </c>
-      <c r="K25">
+      <c r="K51">
         <v>3260089</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52">
         <v>25</v>
       </c>
-      <c r="D26">
-        <v>3993</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26">
-        <v>13</v>
-      </c>
-      <c r="J26">
+      <c r="D52">
+        <v>3993</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52">
+        <v>13</v>
+      </c>
+      <c r="J52">
         <v>1.0524296618196001</v>
       </c>
-      <c r="K26">
+      <c r="K52">
         <v>8339361</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53">
         <v>26</v>
       </c>
-      <c r="D27">
-        <v>3993</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27">
-        <v>16</v>
-      </c>
-      <c r="J27">
+      <c r="D53">
+        <v>3993</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53">
+        <v>16</v>
+      </c>
+      <c r="J53">
         <v>1.2183991228070177</v>
       </c>
-      <c r="K27">
+      <c r="K53">
         <v>8759626</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
         <v>27</v>
       </c>
-      <c r="D28">
-        <v>3993</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28">
+      <c r="D54">
+        <v>3993</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54">
         <v>31.1</v>
       </c>
-      <c r="J28">
+      <c r="J54">
         <v>1.0974936091099234</v>
       </c>
-      <c r="K28">
+      <c r="K54">
         <v>12984367</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
         <v>28</v>
       </c>
-      <c r="D29">
-        <v>3993</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29">
+      <c r="D55">
+        <v>3993</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55">
         <v>10.4</v>
       </c>
-      <c r="J29">
+      <c r="J55">
         <v>0.91014502529510966</v>
       </c>
-      <c r="K29">
+      <c r="K55">
         <v>6129292</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56">
         <v>29</v>
       </c>
-      <c r="D30">
-        <v>3993</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30">
+      <c r="D56">
+        <v>3993</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56">
         <v>14.3</v>
       </c>
-      <c r="J30">
+      <c r="J56">
         <v>0.96748066581306025</v>
       </c>
-      <c r="K30">
+      <c r="K56">
         <v>5618754</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L56" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57">
         <v>30</v>
       </c>
-      <c r="D31">
-        <v>3993</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31">
+      <c r="D57">
+        <v>3993</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57">
         <v>2.0299999999999998</v>
       </c>
-      <c r="J31">
+      <c r="J57">
         <v>5.5631304333485208</v>
       </c>
-      <c r="K31">
+      <c r="K57">
         <v>7754930</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58">
         <v>31</v>
       </c>
-      <c r="D32">
-        <v>3993</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32">
+      <c r="D58">
+        <v>3993</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58">
         <v>27.5</v>
       </c>
-      <c r="J32">
+      <c r="J58">
         <v>1.1051342654887966</v>
       </c>
-      <c r="K32">
+      <c r="K58">
         <v>7397239</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59">
         <v>32</v>
       </c>
-      <c r="D33">
-        <v>3993</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33">
+      <c r="D59">
+        <v>3993</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59">
         <v>5.82</v>
       </c>
-      <c r="J33">
+      <c r="J59">
         <v>2.1300136347501657</v>
       </c>
-      <c r="K33">
+      <c r="K59">
         <v>4954339</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L59" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60">
         <v>33</v>
       </c>
-      <c r="D34">
-        <v>3993</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="D60">
+        <v>3993</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
         <v>17</v>
       </c>
-      <c r="J34">
+      <c r="J60">
         <v>0.53717592526766289</v>
       </c>
-      <c r="K34">
+      <c r="K60">
         <v>14619173</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L60" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61">
         <v>34</v>
       </c>
-      <c r="D35">
-        <v>3993</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="D61">
+        <v>3993</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
         <v>17</v>
       </c>
-      <c r="J35">
+      <c r="J61">
         <v>3.4991312401593038</v>
       </c>
-      <c r="K35">
+      <c r="K61">
         <v>5623988</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L61" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62">
         <v>35</v>
       </c>
-      <c r="D36">
-        <v>3993</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="D62">
+        <v>3993</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
         <v>17</v>
       </c>
-      <c r="J36">
+      <c r="J62">
         <v>2.1272590090090091</v>
       </c>
-      <c r="K36">
+      <c r="K62">
         <v>6995745</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L62" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63">
         <v>36</v>
       </c>
-      <c r="D37">
-        <v>3993</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37">
+      <c r="D63">
+        <v>3993</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K37">
+      <c r="K63">
         <v>12664</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L63" t="s">
         <v>53</v>
       </c>
     </row>

--- a/fastqFiles/fastq_fullrun_hbrown_10.31.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_10.31.19.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F32536-2231-CE46-A6B9-899A5D97229C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,282 +27,263 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="82">
   <si>
-    <t xml:space="preserve">libraryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">librarySampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laneNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequencerModel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowcellType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tapestationConc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volumePooled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readsObtained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastqFileName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.15.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.BROWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NextSeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MidHighput</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fullRNASeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_1_SIC_Index2_06_TGAGGTT_GACCTTGT_S2_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_2_SIC_Index2_06_GCTTAGA_GACCTTGT_S3_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_3_SIC_Index2_06_ATGACAG_GACCTTGT_S4_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_4_SIC_Index2_06_CACCTCC_GACCTTGT_S5_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_5_SIC_Index2_06_ATCGAGC_GACCTTGT_S6_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_6_SIC_Index2_06_TACTCTA_GACCTTGT_S7_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_7_SIC_Index2_06_AGACTGA_GACCTTGT_S8_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_8_SIC_Index2_06_CTTGGAA_GACCTTGT_S9_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_9_SIC_Index2_06_CCGATTA_GACCTTGT_S10_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_10_SIC_Index2_06_GGCAGCG_GACCTTGT_S11_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_11_SIC_Index2_06_CCATCAT_GACCTTGT_S12_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_12_SIC_Index2_06_TAACAAG_GACCTTGT_S13_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_13_SIC_Index2_06_GAGGCGT_GACCTTGT_S14_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_14_SIC_Index2_06_TTTAACT_GACCTTGT_S15_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_15_SIC_Index2_06_GGTCCTC_GACCTTGT_S16_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_16_SIC_Index2_06_CGGTGGC_GACCTTGT_S17_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_17_SIC_Index2_06_ACTGTCG_GACCTTGT_S18_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_18_SIC_Index2_06_GTATTTG_GACCTTGT_S19_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_19_SIC_Index2_06_GAGTACG_GACCTTGT_S20_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_20_SIC_Index2_06_ACAGATA_GACCTTGT_S21_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_21_SIC_Index2_06_CTCAATG_GACCTTGT_S22_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_22_SIC_Index2_06_AAATGCA_GACCTTGT_S23_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_23_SIC_Index2_06_ACGCGGG_GACCTTGT_S24_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_24_SIC_Index2_06_GGAGTCC_GACCTTGT_S25_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_25_SIC_Index2_06_CGTCGCT_GACCTTGT_S26_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3a_GTAC_26_SIC_Index2_06_TCAACTG_GACCTTGT_S27_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.23.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighOutput</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_1_SIC_Index2_07_TGAGGTT_GAGTTGGT_S28_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_2_SIC_Index2_07_GCTTAGA_GAGTTGGT_S29_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_3_SIC_Index2_07_ATGACAG_GAGTTGGT_S30_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_4_SIC_Index2_07_CACCTCC_GAGTTGGT_S31_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_5_SIC_Index2_07_ATCGAGC_GAGTTGGT_S32_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_6_SIC_Index2_07_TACTCTA_GAGTTGGT_S33_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_7_SIC_Index2_07_AGACTGA_GAGTTGGT_S34_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_8_SIC_Index2_07_CTTGGAA_GAGTTGGT_S35_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_9_SIC_Index2_07_CCGATTA_GAGTTGGT_S36_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_10_SIC_Index2_07_GGCAGCG_GAGTTGGT_S37_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_11_SIC_Index2_07_CCATCAT_GAGTTGGT_S38_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_12_SIC_Index2_07_TAACAAG_GAGTTGGT_S39_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_13_SIC_Index2_07_GAGGCGT_GAGTTGGT_S40_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_14_SIC_Index2_07_TTTAACT_GAGTTGGT_S41_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_15_SIC_Index2_07_GGTCCTC_GAGTTGGT_S42_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_16_SIC_Index2_07_CGGTGGC_GAGTTGGT_S43_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_17_SIC_Index2_07_ACTGTCG_GAGTTGGT_S44_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_18_SIC_Index2_07_GTATTTG_GAGTTGGT_S45_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_19_SIC_Index2_07_GAGTACG_GAGTTGGT_S46_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_20_SIC_Index2_07_ACAGATA_GAGTTGGT_S47_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_21_SIC_Index2_07_CTCAATG_GAGTTGGT_S48_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_22_SIC_Index2_07_AAATGCA_GAGTTGGT_S49_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_23_SIC_Index2_07_ACGCGGG_GAGTTGGT_S50_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_24_SIC_Index2_07_GGAGTCC_GAGTTGGT_S51_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_25_SIC_Index2_07_CGTCGCT_GAGTTGGT_S52_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_26_SIC_Index2_07_TCAACTG_GAGTTGGT_S53_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_27_SIC_Index2_07_TGTTTGT_GAGTTGGT_S54_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_28_SIC_Index2_07_TACATGG_GAGTTGGT_S55_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_29_SIC_Index2_07_GTTCTCA_GAGTTGGT_S56_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_30_SIC_Index2_07_CTGGTGG_GAGTTGGT_S57_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_31_SIC_Index2_07_TGCCCAT_GAGTTGGT_S58_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_32_SIC_Index2_07_AAACCTT_GAGTTGGT_S59_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_33_SIC_Index2_07_ACCATAC_GAGTTGGT_S60_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_34_SIC_Index2_07_AATACGC_GAGTTGGT_S61_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_35_SIC_Index2_07_CGCTACA_GAGTTGGT_S62_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4a_GTAC_36_SIC_Index2_07_TGGCATA_GAGTTGGT_S63_R1_001.fastq.gz</t>
+    <t>libraryDate</t>
+  </si>
+  <si>
+    <t>libraryPreparer</t>
+  </si>
+  <si>
+    <t>librarySampleNumber</t>
+  </si>
+  <si>
+    <t>runNumber</t>
+  </si>
+  <si>
+    <t>laneNumber</t>
+  </si>
+  <si>
+    <t>sequencerModel</t>
+  </si>
+  <si>
+    <t>flowcellType</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>tapestationConc</t>
+  </si>
+  <si>
+    <t>volumePooled</t>
+  </si>
+  <si>
+    <t>readsObtained</t>
+  </si>
+  <si>
+    <t>fastqFileName</t>
+  </si>
+  <si>
+    <t>08.15.19</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>NextSeq</t>
+  </si>
+  <si>
+    <t>MidHighput</t>
+  </si>
+  <si>
+    <t>fullRNASeq</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_1_SIC_Index2_06_TGAGGTT_GACCTTGT_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_2_SIC_Index2_06_GCTTAGA_GACCTTGT_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_3_SIC_Index2_06_ATGACAG_GACCTTGT_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_4_SIC_Index2_06_CACCTCC_GACCTTGT_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_5_SIC_Index2_06_ATCGAGC_GACCTTGT_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_6_SIC_Index2_06_TACTCTA_GACCTTGT_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_7_SIC_Index2_06_AGACTGA_GACCTTGT_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_8_SIC_Index2_06_CTTGGAA_GACCTTGT_S9_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_9_SIC_Index2_06_CCGATTA_GACCTTGT_S10_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_10_SIC_Index2_06_GGCAGCG_GACCTTGT_S11_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_11_SIC_Index2_06_CCATCAT_GACCTTGT_S12_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_12_SIC_Index2_06_TAACAAG_GACCTTGT_S13_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_13_SIC_Index2_06_GAGGCGT_GACCTTGT_S14_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_14_SIC_Index2_06_TTTAACT_GACCTTGT_S15_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_15_SIC_Index2_06_GGTCCTC_GACCTTGT_S16_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_16_SIC_Index2_06_CGGTGGC_GACCTTGT_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_17_SIC_Index2_06_ACTGTCG_GACCTTGT_S18_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_18_SIC_Index2_06_GTATTTG_GACCTTGT_S19_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_19_SIC_Index2_06_GAGTACG_GACCTTGT_S20_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_20_SIC_Index2_06_ACAGATA_GACCTTGT_S21_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_21_SIC_Index2_06_CTCAATG_GACCTTGT_S22_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_22_SIC_Index2_06_AAATGCA_GACCTTGT_S23_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_23_SIC_Index2_06_ACGCGGG_GACCTTGT_S24_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_24_SIC_Index2_06_GGAGTCC_GACCTTGT_S25_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_25_SIC_Index2_06_CGTCGCT_GACCTTGT_S26_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3a_GTAC_26_SIC_Index2_06_TCAACTG_GACCTTGT_S27_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>10.23.19</t>
+  </si>
+  <si>
+    <t>HighOutput</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_1_SIC_Index2_07_TGAGGTT_GAGTTGGT_S28_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_2_SIC_Index2_07_GCTTAGA_GAGTTGGT_S29_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_3_SIC_Index2_07_ATGACAG_GAGTTGGT_S30_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_4_SIC_Index2_07_CACCTCC_GAGTTGGT_S31_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_5_SIC_Index2_07_ATCGAGC_GAGTTGGT_S32_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_6_SIC_Index2_07_TACTCTA_GAGTTGGT_S33_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_7_SIC_Index2_07_AGACTGA_GAGTTGGT_S34_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_8_SIC_Index2_07_CTTGGAA_GAGTTGGT_S35_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_9_SIC_Index2_07_CCGATTA_GAGTTGGT_S36_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_10_SIC_Index2_07_GGCAGCG_GAGTTGGT_S37_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_11_SIC_Index2_07_CCATCAT_GAGTTGGT_S38_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_12_SIC_Index2_07_TAACAAG_GAGTTGGT_S39_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_13_SIC_Index2_07_GAGGCGT_GAGTTGGT_S40_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_14_SIC_Index2_07_TTTAACT_GAGTTGGT_S41_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_15_SIC_Index2_07_GGTCCTC_GAGTTGGT_S42_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_16_SIC_Index2_07_CGGTGGC_GAGTTGGT_S43_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_17_SIC_Index2_07_ACTGTCG_GAGTTGGT_S44_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_18_SIC_Index2_07_GTATTTG_GAGTTGGT_S45_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_19_SIC_Index2_07_GAGTACG_GAGTTGGT_S46_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_20_SIC_Index2_07_ACAGATA_GAGTTGGT_S47_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_21_SIC_Index2_07_CTCAATG_GAGTTGGT_S48_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_22_SIC_Index2_07_AAATGCA_GAGTTGGT_S49_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_23_SIC_Index2_07_ACGCGGG_GAGTTGGT_S50_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_24_SIC_Index2_07_GGAGTCC_GAGTTGGT_S51_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_25_SIC_Index2_07_CGTCGCT_GAGTTGGT_S52_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_26_SIC_Index2_07_TCAACTG_GAGTTGGT_S53_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_27_SIC_Index2_07_TGTTTGT_GAGTTGGT_S54_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_28_SIC_Index2_07_TACATGG_GAGTTGGT_S55_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_29_SIC_Index2_07_GTTCTCA_GAGTTGGT_S56_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_30_SIC_Index2_07_CTGGTGG_GAGTTGGT_S57_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_31_SIC_Index2_07_TGCCCAT_GAGTTGGT_S58_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_32_SIC_Index2_07_AAACCTT_GAGTTGGT_S59_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_33_SIC_Index2_07_ACCATAC_GAGTTGGT_S60_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_34_SIC_Index2_07_AATACGC_GAGTTGGT_S61_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_35_SIC_Index2_07_CGCTACA_GAGTTGGT_S62_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4a_GTAC_36_SIC_Index2_07_TGGCATA_GAGTTGGT_S63_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -350,7 +336,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -358,89 +344,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -499,30 +429,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D63"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.61"/>
+    <col min="1" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +791,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -574,17 +812,17 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="5">
         <v>3993</v>
       </c>
       <c r="E2" s="2"/>
@@ -597,13 +835,13 @@
       <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>4.7</v>
       </c>
-      <c r="J2" s="7" t="n">
-        <v>1.69031005324147</v>
-      </c>
-      <c r="K2" s="8" t="n">
+      <c r="J2" s="7">
+        <v>1.6903100532414701</v>
+      </c>
+      <c r="K2">
         <v>8367714</v>
       </c>
       <c r="L2" s="9" t="s">
@@ -624,17 +862,17 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>3993</v>
       </c>
       <c r="E3" s="2"/>
@@ -647,30 +885,30 @@
       <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <v>1.23287168776922</v>
-      </c>
-      <c r="K3" s="8" t="n">
+      <c r="J3">
+        <v>1.2328716877692201</v>
+      </c>
+      <c r="K3">
         <v>6768054</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>3993</v>
       </c>
       <c r="E4" s="2"/>
@@ -683,13 +921,13 @@
       <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>43.2</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>1.20142848056987</v>
-      </c>
-      <c r="K4" s="8" t="n">
+      <c r="J4">
+        <v>1.2014284805698701</v>
+      </c>
+      <c r="K4">
         <v>8564064</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -698,17 +936,17 @@
       <c r="N4" s="9"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>3993</v>
       </c>
       <c r="E5" s="2"/>
@@ -721,13 +959,13 @@
       <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>5.66</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>0.488426399598338</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5">
         <v>14805356</v>
       </c>
       <c r="L5" s="9" t="s">
@@ -736,17 +974,17 @@
       <c r="N5" s="9"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>3993</v>
       </c>
       <c r="E6" s="2"/>
@@ -759,13 +997,13 @@
       <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>3.55</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>0.640307048117617</v>
-      </c>
-      <c r="K6" s="8" t="n">
+      <c r="J6">
+        <v>0.64030704811761696</v>
+      </c>
+      <c r="K6">
         <v>6911361</v>
       </c>
       <c r="L6" s="9" t="s">
@@ -774,17 +1012,17 @@
       <c r="N6" s="9"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>3993</v>
       </c>
       <c r="E7" s="2"/>
@@ -797,13 +1035,13 @@
       <c r="H7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>9.9</v>
       </c>
-      <c r="J7" s="0" t="n">
-        <v>0.24796450535242</v>
-      </c>
-      <c r="K7" s="8" t="n">
+      <c r="J7">
+        <v>0.24796450535242001</v>
+      </c>
+      <c r="K7">
         <v>14103190</v>
       </c>
       <c r="L7" s="9" t="s">
@@ -812,17 +1050,17 @@
       <c r="N7" s="9"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>3993</v>
       </c>
       <c r="E8" s="2"/>
@@ -835,13 +1073,13 @@
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>1.25</v>
       </c>
-      <c r="J8" s="0" t="n">
-        <v>7.51813261163735</v>
-      </c>
-      <c r="K8" s="8" t="n">
+      <c r="J8">
+        <v>7.5181326116373501</v>
+      </c>
+      <c r="K8">
         <v>7305097</v>
       </c>
       <c r="L8" s="9" t="s">
@@ -850,17 +1088,17 @@
       <c r="N8" s="9"/>
       <c r="O8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>3993</v>
       </c>
       <c r="E9" s="2"/>
@@ -873,13 +1111,13 @@
       <c r="H9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>5.03</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>1.95272417078229</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9">
         <v>8605604</v>
       </c>
       <c r="L9" s="9" t="s">
@@ -888,17 +1126,17 @@
       <c r="N9" s="9"/>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>3993</v>
       </c>
       <c r="E10" s="2"/>
@@ -911,13 +1149,13 @@
       <c r="H10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10">
         <v>26.8</v>
       </c>
-      <c r="J10" s="0" t="n">
-        <v>0.793966879623403</v>
-      </c>
-      <c r="K10" s="8" t="n">
+      <c r="J10">
+        <v>0.79396687962340295</v>
+      </c>
+      <c r="K10">
         <v>5626777</v>
       </c>
       <c r="L10" s="9" t="s">
@@ -926,17 +1164,17 @@
       <c r="N10" s="9"/>
       <c r="O10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>3993</v>
       </c>
       <c r="E11" s="2"/>
@@ -949,13 +1187,13 @@
       <c r="H11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11">
         <v>19</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>0.927028512538647</v>
-      </c>
-      <c r="K11" s="8" t="n">
+      <c r="J11">
+        <v>0.92702851253864704</v>
+      </c>
+      <c r="K11">
         <v>6109941</v>
       </c>
       <c r="L11" s="9" t="s">
@@ -964,17 +1202,17 @@
       <c r="N11" s="9"/>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="5">
         <v>3993</v>
       </c>
       <c r="E12" s="2"/>
@@ -987,13 +1225,13 @@
       <c r="H12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12">
         <v>58</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <v>1.01439480184728</v>
-      </c>
-      <c r="K12" s="8" t="n">
+      <c r="J12">
+        <v>1.0143948018472799</v>
+      </c>
+      <c r="K12">
         <v>6816187</v>
       </c>
       <c r="L12" s="9" t="s">
@@ -1002,17 +1240,17 @@
       <c r="N12" s="9"/>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>12</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="5">
         <v>3993</v>
       </c>
       <c r="E13" s="2"/>
@@ -1025,13 +1263,13 @@
       <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13">
         <v>25.1</v>
       </c>
-      <c r="J13" s="0" t="n">
-        <v>0.946348379339712</v>
-      </c>
-      <c r="K13" s="8" t="n">
+      <c r="J13">
+        <v>0.94634837933971205</v>
+      </c>
+      <c r="K13">
         <v>4992167</v>
       </c>
       <c r="L13" s="9" t="s">
@@ -1040,17 +1278,17 @@
       <c r="N13" s="9"/>
       <c r="O13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5" t="n">
+      <c r="C14" s="4">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5">
         <v>3993</v>
       </c>
       <c r="E14" s="2"/>
@@ -1063,13 +1301,13 @@
       <c r="H14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14">
         <v>16.8</v>
       </c>
-      <c r="J14" s="0" t="n">
-        <v>0.934966343298357</v>
-      </c>
-      <c r="K14" s="8" t="n">
+      <c r="J14">
+        <v>0.93496634329835704</v>
+      </c>
+      <c r="K14">
         <v>8687308</v>
       </c>
       <c r="L14" s="9" t="s">
@@ -1077,17 +1315,17 @@
       </c>
       <c r="O14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" s="5" t="n">
+      <c r="C15" s="4">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5">
         <v>3993</v>
       </c>
       <c r="E15" s="2"/>
@@ -1100,13 +1338,13 @@
       <c r="H15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>0.721</v>
-      </c>
-      <c r="J15" s="0" t="n">
+      <c r="I15">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="J15">
         <v>5</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15">
         <v>1850160</v>
       </c>
       <c r="L15" s="9" t="s">
@@ -1114,17 +1352,17 @@
       </c>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="4">
         <v>15</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="5">
         <v>3993</v>
       </c>
       <c r="E16" s="2"/>
@@ -1137,13 +1375,13 @@
       <c r="H16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16">
         <v>26</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16">
         <v>1.01816741227834</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16">
         <v>7087089</v>
       </c>
       <c r="L16" s="9" t="s">
@@ -1151,17 +1389,17 @@
       </c>
       <c r="O16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="n">
+      <c r="C17" s="4">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5">
         <v>3993</v>
       </c>
       <c r="E17" s="2"/>
@@ -1174,13 +1412,13 @@
       <c r="H17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>10.7</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17">
         <v>1.03350085951545</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17">
         <v>7715340</v>
       </c>
       <c r="L17" s="9" t="s">
@@ -1188,17 +1426,17 @@
       </c>
       <c r="O17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="4">
         <v>17</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="5">
         <v>3993</v>
       </c>
       <c r="E18" s="2"/>
@@ -1211,13 +1449,13 @@
       <c r="H18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18">
         <v>23.9</v>
       </c>
-      <c r="J18" s="0" t="n">
-        <v>0.8295665539502</v>
-      </c>
-      <c r="K18" s="8" t="n">
+      <c r="J18">
+        <v>0.82956655395019996</v>
+      </c>
+      <c r="K18">
         <v>6896431</v>
       </c>
       <c r="L18" s="9" t="s">
@@ -1225,17 +1463,17 @@
       </c>
       <c r="O18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="4">
         <v>18</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="5">
         <v>3993</v>
       </c>
       <c r="E19" s="2"/>
@@ -1248,13 +1486,13 @@
       <c r="H19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19">
         <v>32</v>
       </c>
-      <c r="J19" s="0" t="n">
-        <v>1.24942522653615</v>
-      </c>
-      <c r="K19" s="8" t="n">
+      <c r="J19">
+        <v>1.2494252265361501</v>
+      </c>
+      <c r="K19">
         <v>6810270</v>
       </c>
       <c r="L19" s="9" t="s">
@@ -1262,17 +1500,17 @@
       </c>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="4">
         <v>19</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="5">
         <v>3993</v>
       </c>
       <c r="E20" s="2"/>
@@ -1285,13 +1523,13 @@
       <c r="H20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20">
         <v>2.25</v>
       </c>
-      <c r="J20" s="0" t="n">
-        <v>5.12206834373877</v>
-      </c>
-      <c r="K20" s="8" t="n">
+      <c r="J20">
+        <v>5.1220683437387704</v>
+      </c>
+      <c r="K20">
         <v>9405571</v>
       </c>
       <c r="L20" s="9" t="s">
@@ -1299,17 +1537,17 @@
       </c>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="4">
         <v>20</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="5">
         <v>3993</v>
       </c>
       <c r="E21" s="2"/>
@@ -1322,13 +1560,13 @@
       <c r="H21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>1.65836783061069</v>
-      </c>
-      <c r="K21" s="8" t="n">
+      <c r="I21">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="J21">
+        <v>1.6583678306106899</v>
+      </c>
+      <c r="K21">
         <v>3758051</v>
       </c>
       <c r="L21" s="9" t="s">
@@ -1336,17 +1574,17 @@
       </c>
       <c r="O21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="4">
         <v>21</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="5">
         <v>3993</v>
       </c>
       <c r="E22" s="2"/>
@@ -1359,10 +1597,10 @@
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22">
         <v>0.36</v>
       </c>
-      <c r="K22" s="8" t="n">
+      <c r="K22">
         <v>1197</v>
       </c>
       <c r="L22" s="9" t="s">
@@ -1370,17 +1608,17 @@
       </c>
       <c r="O22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="4">
         <v>22</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="5">
         <v>3993</v>
       </c>
       <c r="E23" s="2"/>
@@ -1393,10 +1631,10 @@
       <c r="H23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="K23" s="8" t="n">
+      <c r="I23">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="K23">
         <v>7185</v>
       </c>
       <c r="L23" s="9" t="s">
@@ -1404,17 +1642,17 @@
       </c>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="4">
         <v>23</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="5">
         <v>3993</v>
       </c>
       <c r="E24" s="2"/>
@@ -1427,10 +1665,10 @@
       <c r="H24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="K24" s="8" t="n">
+      <c r="I24">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="K24">
         <v>3953</v>
       </c>
       <c r="L24" s="9" t="s">
@@ -1438,17 +1676,17 @@
       </c>
       <c r="O24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="4">
         <v>24</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="5">
         <v>3993</v>
       </c>
       <c r="E25" s="2"/>
@@ -1461,10 +1699,10 @@
       <c r="H25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25">
         <v>0.32</v>
       </c>
-      <c r="K25" s="8" t="n">
+      <c r="K25">
         <v>5673</v>
       </c>
       <c r="L25" s="9" t="s">
@@ -1472,17 +1710,17 @@
       </c>
       <c r="O25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="4">
         <v>25</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="5">
         <v>3993</v>
       </c>
       <c r="E26" s="2"/>
@@ -1495,13 +1733,13 @@
       <c r="H26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26">
         <v>10</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26">
         <v>1.11808582420835</v>
       </c>
-      <c r="K26" s="8" t="n">
+      <c r="K26">
         <v>8532260</v>
       </c>
       <c r="L26" s="9" t="s">
@@ -1509,17 +1747,17 @@
       </c>
       <c r="O26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="4">
         <v>26</v>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="D27" s="5">
         <v>3993</v>
       </c>
       <c r="E27" s="2"/>
@@ -1532,10 +1770,10 @@
       <c r="H27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27">
         <v>4.8</v>
       </c>
-      <c r="K27" s="8" t="n">
+      <c r="K27">
         <v>13757898</v>
       </c>
       <c r="L27" s="9" t="s">
@@ -1543,17 +1781,17 @@
       </c>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="4">
         <v>1</v>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="D28" s="5">
         <v>3993</v>
       </c>
       <c r="E28" s="2"/>
@@ -1569,10 +1807,10 @@
       <c r="I28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="7" t="n">
-        <v>0.494769706255975</v>
-      </c>
-      <c r="K28" s="10" t="n">
+      <c r="J28" s="7">
+        <v>0.49476970625597499</v>
+      </c>
+      <c r="K28">
         <v>14700309</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -1593,1257 +1831,1252 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="0" t="s">
+      <c r="D29" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29">
         <v>7759</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="L29" t="s">
         <v>47</v>
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="0" t="n">
+      <c r="D30" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30">
         <v>85.9</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30">
         <v>5</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30">
         <v>3673087</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" t="s">
         <v>48</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="0" t="s">
+      <c r="D31" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
         <v>45</v>
       </c>
-      <c r="J31" s="0" t="n">
-        <v>0.643942730526675</v>
-      </c>
-      <c r="K31" s="0" t="n">
+      <c r="J31">
+        <v>0.64394273052667494</v>
+      </c>
+      <c r="K31">
         <v>7651086</v>
       </c>
-      <c r="L31" s="0" t="s">
+      <c r="L31" t="s">
         <v>49</v>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="0" t="n">
+      <c r="D32" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32">
         <v>252</v>
       </c>
-      <c r="J32" s="0" t="n">
-        <v>6.61185159257963</v>
-      </c>
-      <c r="K32" s="0" t="n">
+      <c r="J32">
+        <v>6.6118515925796304</v>
+      </c>
+      <c r="K32">
         <v>3211556</v>
       </c>
-      <c r="L32" s="0" t="s">
+      <c r="L32" t="s">
         <v>50</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="8"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>6</v>
       </c>
-      <c r="D33" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="0" t="n">
+      <c r="D33" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33">
         <v>153</v>
       </c>
-      <c r="J33" s="0" t="n">
-        <v>8.18814911140009</v>
-      </c>
-      <c r="K33" s="0" t="n">
+      <c r="J33">
+        <v>8.1881491114000902</v>
+      </c>
+      <c r="K33">
         <v>4764788</v>
       </c>
-      <c r="L33" s="0" t="s">
+      <c r="L33" t="s">
         <v>51</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>7</v>
       </c>
-      <c r="D34" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="0" t="n">
+      <c r="D34" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34">
         <v>27.8</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34">
         <v>6.37316464237517</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34">
         <v>5795801</v>
       </c>
-      <c r="L34" s="0" t="s">
+      <c r="L34" t="s">
         <v>52</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>8</v>
       </c>
-      <c r="D35" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="0" t="n">
+      <c r="D35" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35">
         <v>49.7</v>
       </c>
-      <c r="J35" s="0" t="n">
-        <v>7.12832452830189</v>
-      </c>
-      <c r="K35" s="0" t="n">
+      <c r="J35">
+        <v>7.1283245283018903</v>
+      </c>
+      <c r="K35">
         <v>4712895</v>
       </c>
-      <c r="L35" s="0" t="s">
+      <c r="L35" t="s">
         <v>53</v>
       </c>
       <c r="U35" s="9"/>
       <c r="V35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>9</v>
       </c>
-      <c r="D36" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="0" t="n">
+      <c r="D36" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36">
         <v>78.8</v>
       </c>
-      <c r="J36" s="0" t="n">
-        <v>6.79010064701654</v>
-      </c>
-      <c r="K36" s="0" t="n">
+      <c r="J36">
+        <v>6.7901006470165397</v>
+      </c>
+      <c r="K36">
         <v>4865879</v>
       </c>
-      <c r="L36" s="0" t="s">
+      <c r="L36" t="s">
         <v>54</v>
       </c>
       <c r="U36" s="9"/>
       <c r="V36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>10</v>
       </c>
-      <c r="D37" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>67.1</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>7.31322493224932</v>
-      </c>
-      <c r="K37" s="0" t="n">
+      <c r="D37" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="J37">
+        <v>7.3132249322493204</v>
+      </c>
+      <c r="K37">
         <v>5100151</v>
       </c>
-      <c r="L37" s="0" t="s">
+      <c r="L37" t="s">
         <v>55</v>
       </c>
       <c r="U37" s="9"/>
       <c r="V37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>11</v>
       </c>
-      <c r="D38" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="0" t="n">
+      <c r="D38" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38">
         <v>155</v>
       </c>
-      <c r="J38" s="0" t="n">
-        <v>6.55222337842525</v>
-      </c>
-      <c r="K38" s="0" t="n">
+      <c r="J38">
+        <v>6.5522233784252499</v>
+      </c>
+      <c r="K38">
         <v>4337625</v>
       </c>
-      <c r="L38" s="0" t="s">
+      <c r="L38" t="s">
         <v>56</v>
       </c>
       <c r="U38" s="9"/>
       <c r="V38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>12</v>
       </c>
-      <c r="D39" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="0" t="n">
+      <c r="D39" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39">
         <v>298</v>
       </c>
-      <c r="J39" s="0" t="n">
-        <v>9.41677966101695</v>
-      </c>
-      <c r="K39" s="0" t="n">
+      <c r="J39">
+        <v>9.4167796610169496</v>
+      </c>
+      <c r="K39">
         <v>3296083</v>
       </c>
-      <c r="L39" s="0" t="s">
+      <c r="L39" t="s">
         <v>57</v>
       </c>
       <c r="U39" s="9"/>
       <c r="V39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D40" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="0" t="n">
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40">
         <v>13.2</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="J40">
         <v>5.58877514792899</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="K40">
         <v>4556518</v>
       </c>
-      <c r="L40" s="0" t="s">
+      <c r="L40" t="s">
         <v>58</v>
       </c>
       <c r="U40" s="9"/>
       <c r="V40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D41" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="0" t="n">
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41">
         <v>3.51</v>
       </c>
-      <c r="J41" s="0" t="n">
-        <v>13.4746706955019</v>
-      </c>
-      <c r="K41" s="0" t="n">
+      <c r="J41">
+        <v>13.474670695501899</v>
+      </c>
+      <c r="K41">
         <v>2740739</v>
       </c>
-      <c r="L41" s="0" t="s">
+      <c r="L41" t="s">
         <v>59</v>
       </c>
       <c r="U41" s="9"/>
       <c r="V41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="0" t="s">
+      <c r="D42" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
         <v>45</v>
       </c>
-      <c r="J42" s="0" t="n">
-        <v>0.609553404323976</v>
-      </c>
-      <c r="K42" s="0" t="n">
+      <c r="J42">
+        <v>0.60955340432397598</v>
+      </c>
+      <c r="K42">
         <v>9722870</v>
       </c>
-      <c r="L42" s="0" t="s">
+      <c r="L42" t="s">
         <v>60</v>
       </c>
       <c r="U42" s="9"/>
-      <c r="V42" s="11"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="V42" s="10"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D43" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="0" t="n">
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43">
         <v>12.5</v>
       </c>
-      <c r="J43" s="0" t="n">
-        <v>1.03968627882657</v>
-      </c>
-      <c r="K43" s="0" t="n">
+      <c r="J43">
+        <v>1.0396862788265699</v>
+      </c>
+      <c r="K43">
         <v>6048438</v>
       </c>
-      <c r="L43" s="0" t="s">
+      <c r="L43" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>17</v>
       </c>
-      <c r="D44" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="0" t="n">
+      <c r="D44" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44">
         <v>17.3</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44">
         <v>1.01189522176987</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="K44">
         <v>6939601</v>
       </c>
-      <c r="L44" s="0" t="s">
+      <c r="L44" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>18</v>
       </c>
-      <c r="D45" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="0" t="n">
+      <c r="D45" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45">
         <v>8.91</v>
       </c>
-      <c r="J45" s="0" t="n">
-        <v>1.19590282082761</v>
-      </c>
-      <c r="K45" s="0" t="n">
+      <c r="J45">
+        <v>1.1959028208276099</v>
+      </c>
+      <c r="K45">
         <v>7347060</v>
       </c>
-      <c r="L45" s="0" t="s">
+      <c r="L45" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>19</v>
       </c>
-      <c r="D46" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="0" t="n">
+      <c r="D46" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46">
         <v>7.43</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46">
         <v>1.64866336068093</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46">
         <v>5521155</v>
       </c>
-      <c r="L46" s="0" t="s">
+      <c r="L46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>20</v>
       </c>
-      <c r="D47" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="0" t="n">
+      <c r="D47" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47">
         <v>3.79</v>
       </c>
-      <c r="J47" s="0" t="n">
-        <v>2.91797008171063</v>
-      </c>
-      <c r="K47" s="0" t="n">
+      <c r="J47">
+        <v>2.9179700817106302</v>
+      </c>
+      <c r="K47">
         <v>5138175</v>
       </c>
-      <c r="L47" s="0" t="s">
+      <c r="L47" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>21</v>
       </c>
-      <c r="D48" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>0.236</v>
-      </c>
-      <c r="K48" s="0" t="n">
+      <c r="D48" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="K48">
         <v>1895</v>
       </c>
-      <c r="L48" s="0" t="s">
+      <c r="L48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>22</v>
       </c>
-      <c r="D49" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>8.96857448071217</v>
-      </c>
-      <c r="K49" s="0" t="n">
+      <c r="D49" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J49">
+        <v>8.9685744807121708</v>
+      </c>
+      <c r="K49">
         <v>3561994</v>
       </c>
-      <c r="L49" s="0" t="s">
+      <c r="L49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>23</v>
       </c>
-      <c r="D50" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="0" t="s">
+      <c r="D50" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
         <v>45</v>
       </c>
-      <c r="J50" s="0" t="n">
-        <v>6.29458847050983</v>
-      </c>
-      <c r="K50" s="0" t="n">
+      <c r="J50">
+        <v>6.2945884705098303</v>
+      </c>
+      <c r="K50">
         <v>5965762</v>
       </c>
-      <c r="L50" s="0" t="s">
+      <c r="L50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>24</v>
       </c>
-      <c r="D51" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="J51" s="0" t="n">
+      <c r="D51" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J51">
         <v>10.4278553684792</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="K51">
         <v>3260089</v>
       </c>
-      <c r="L51" s="0" t="s">
+      <c r="L51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>25</v>
       </c>
-      <c r="D52" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <v>1.0524296618196</v>
-      </c>
-      <c r="K52" s="0" t="n">
+      <c r="D52" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52">
+        <v>13</v>
+      </c>
+      <c r="J52">
+        <v>1.0524296618196001</v>
+      </c>
+      <c r="K52">
         <v>8339361</v>
       </c>
-      <c r="L52" s="0" t="s">
+      <c r="L52" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>26</v>
       </c>
-      <c r="D53" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <v>1.21839912280702</v>
-      </c>
-      <c r="K53" s="0" t="n">
+      <c r="D53" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53">
+        <v>16</v>
+      </c>
+      <c r="J53">
+        <v>1.2183991228070199</v>
+      </c>
+      <c r="K53">
         <v>8759626</v>
       </c>
-      <c r="L53" s="0" t="s">
+      <c r="L53" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>27</v>
       </c>
-      <c r="D54" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="0" t="n">
+      <c r="D54" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54">
         <v>31.1</v>
       </c>
-      <c r="J54" s="0" t="n">
-        <v>1.09749360910992</v>
-      </c>
-      <c r="K54" s="0" t="n">
+      <c r="J54">
+        <v>1.0974936091099201</v>
+      </c>
+      <c r="K54">
         <v>12984367</v>
       </c>
-      <c r="L54" s="0" t="s">
+      <c r="L54" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>28</v>
       </c>
-      <c r="D55" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" s="0" t="n">
+      <c r="D55" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55">
         <v>10.4</v>
       </c>
-      <c r="J55" s="0" t="n">
-        <v>0.91014502529511</v>
-      </c>
-      <c r="K55" s="0" t="n">
+      <c r="J55">
+        <v>0.91014502529510999</v>
+      </c>
+      <c r="K55">
         <v>6129292</v>
       </c>
-      <c r="L55" s="0" t="s">
+      <c r="L55" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>29</v>
       </c>
-      <c r="D56" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="0" t="n">
+      <c r="D56" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56">
         <v>14.3</v>
       </c>
-      <c r="J56" s="0" t="n">
-        <v>0.96748066581306</v>
-      </c>
-      <c r="K56" s="0" t="n">
+      <c r="J56">
+        <v>0.96748066581306003</v>
+      </c>
+      <c r="K56">
         <v>5618754</v>
       </c>
-      <c r="L56" s="0" t="s">
+      <c r="L56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>30</v>
       </c>
-      <c r="D57" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="J57" s="0" t="n">
-        <v>5.56313043334852</v>
-      </c>
-      <c r="K57" s="0" t="n">
+      <c r="D57" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J57">
+        <v>5.5631304333485199</v>
+      </c>
+      <c r="K57">
         <v>7754930</v>
       </c>
-      <c r="L57" s="0" t="s">
+      <c r="L57" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>31</v>
       </c>
-      <c r="D58" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="0" t="n">
+      <c r="D58" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58">
         <v>27.5</v>
       </c>
-      <c r="J58" s="0" t="n">
-        <v>1.1051342654888</v>
-      </c>
-      <c r="K58" s="0" t="n">
+      <c r="J58">
+        <v>1.1051342654887999</v>
+      </c>
+      <c r="K58">
         <v>7397239</v>
       </c>
-      <c r="L58" s="0" t="s">
+      <c r="L58" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>32</v>
       </c>
-      <c r="D59" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="0" t="n">
+      <c r="D59" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59">
         <v>5.82</v>
       </c>
-      <c r="J59" s="0" t="n">
-        <v>2.13001363475017</v>
-      </c>
-      <c r="K59" s="0" t="n">
+      <c r="J59">
+        <v>2.1300136347501701</v>
+      </c>
+      <c r="K59">
         <v>4954339</v>
       </c>
-      <c r="L59" s="0" t="s">
+      <c r="L59" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>33</v>
       </c>
-      <c r="D60" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="0" t="s">
+      <c r="D60" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" t="s">
         <v>45</v>
       </c>
-      <c r="J60" s="0" t="n">
+      <c r="J60">
         <v>0.537175925267663</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="K60">
         <v>14619173</v>
       </c>
-      <c r="L60" s="0" t="s">
+      <c r="L60" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>43</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>34</v>
       </c>
-      <c r="D61" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="0" t="s">
+      <c r="D61" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
         <v>45</v>
       </c>
-      <c r="J61" s="0" t="n">
-        <v>3.4991312401593</v>
-      </c>
-      <c r="K61" s="0" t="n">
+      <c r="J61">
+        <v>3.4991312401593002</v>
+      </c>
+      <c r="K61">
         <v>5623988</v>
       </c>
-      <c r="L61" s="0" t="s">
+      <c r="L61" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>43</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>35</v>
       </c>
-      <c r="D62" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="0" t="s">
+      <c r="D62" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" t="s">
         <v>45</v>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="J62">
         <v>2.12725900900901</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="K62">
         <v>6995745</v>
       </c>
-      <c r="L62" s="0" t="s">
+      <c r="L62" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>43</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>36</v>
       </c>
-      <c r="D63" s="5" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="0" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="K63" s="0" t="n">
+      <c r="D63" s="5">
+        <v>3993</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K63">
         <v>12664</v>
       </c>
-      <c r="L63" s="0" t="s">
+      <c r="L63" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/fastqFiles/fastq_fullrun_hbrown_10.31.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_10.31.19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F32536-2231-CE46-A6B9-899A5D97229C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E895C1C7-33B6-844A-99B0-999DC517BF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="81">
   <si>
     <t>libraryDate</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>HighOutput</t>
-  </si>
-  <si>
-    <t>na</t>
   </si>
   <si>
     <t>Brent_4a_GTAC_1_SIC_Index2_07_TGAGGTT_GAGTTGGT_S28_R1_001.fastq.gz</t>
@@ -749,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1804,9 +1801,7 @@
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="I28" s="7"/>
       <c r="J28" s="7">
         <v>0.49476970625597499</v>
       </c>
@@ -1814,7 +1809,7 @@
         <v>14700309</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1853,14 +1848,11 @@
       <c r="H29" t="s">
         <v>16</v>
       </c>
-      <c r="I29" t="s">
-        <v>45</v>
-      </c>
       <c r="K29">
         <v>7759</v>
       </c>
       <c r="L29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="8"/>
@@ -1897,7 +1889,7 @@
         <v>3673087</v>
       </c>
       <c r="L30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="8"/>
@@ -1924,9 +1916,6 @@
       <c r="H31" t="s">
         <v>16</v>
       </c>
-      <c r="I31" t="s">
-        <v>45</v>
-      </c>
       <c r="J31">
         <v>0.64394273052667494</v>
       </c>
@@ -1934,7 +1923,7 @@
         <v>7651086</v>
       </c>
       <c r="L31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="8"/>
@@ -1971,7 +1960,7 @@
         <v>3211556</v>
       </c>
       <c r="L32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="8"/>
@@ -2008,7 +1997,7 @@
         <v>4764788</v>
       </c>
       <c r="L33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="8"/>
@@ -2045,7 +2034,7 @@
         <v>5795801</v>
       </c>
       <c r="L34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="8"/>
@@ -2082,7 +2071,7 @@
         <v>4712895</v>
       </c>
       <c r="L35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U35" s="9"/>
       <c r="V35" s="8"/>
@@ -2119,7 +2108,7 @@
         <v>4865879</v>
       </c>
       <c r="L36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U36" s="9"/>
       <c r="V36" s="8"/>
@@ -2156,7 +2145,7 @@
         <v>5100151</v>
       </c>
       <c r="L37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U37" s="9"/>
       <c r="V37" s="8"/>
@@ -2193,7 +2182,7 @@
         <v>4337625</v>
       </c>
       <c r="L38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U38" s="9"/>
       <c r="V38" s="8"/>
@@ -2230,7 +2219,7 @@
         <v>3296083</v>
       </c>
       <c r="L39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U39" s="9"/>
       <c r="V39" s="8"/>
@@ -2267,7 +2256,7 @@
         <v>4556518</v>
       </c>
       <c r="L40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U40" s="9"/>
       <c r="V40" s="8"/>
@@ -2304,7 +2293,7 @@
         <v>2740739</v>
       </c>
       <c r="L41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U41" s="9"/>
       <c r="V41" s="8"/>
@@ -2331,9 +2320,6 @@
       <c r="H42" t="s">
         <v>16</v>
       </c>
-      <c r="I42" t="s">
-        <v>45</v>
-      </c>
       <c r="J42">
         <v>0.60955340432397598</v>
       </c>
@@ -2341,7 +2327,7 @@
         <v>9722870</v>
       </c>
       <c r="L42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U42" s="9"/>
       <c r="V42" s="10"/>
@@ -2378,7 +2364,7 @@
         <v>6048438</v>
       </c>
       <c r="L43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
@@ -2413,7 +2399,7 @@
         <v>6939601</v>
       </c>
       <c r="L44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
@@ -2448,7 +2434,7 @@
         <v>7347060</v>
       </c>
       <c r="L45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
@@ -2483,7 +2469,7 @@
         <v>5521155</v>
       </c>
       <c r="L46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
@@ -2518,7 +2504,7 @@
         <v>5138175</v>
       </c>
       <c r="L47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
@@ -2550,7 +2536,7 @@
         <v>1895</v>
       </c>
       <c r="L48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2585,7 +2571,7 @@
         <v>3561994</v>
       </c>
       <c r="L49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2610,9 +2596,6 @@
       <c r="H50" t="s">
         <v>16</v>
       </c>
-      <c r="I50" t="s">
-        <v>45</v>
-      </c>
       <c r="J50">
         <v>6.2945884705098303</v>
       </c>
@@ -2620,7 +2603,7 @@
         <v>5965762</v>
       </c>
       <c r="L50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2655,7 +2638,7 @@
         <v>3260089</v>
       </c>
       <c r="L51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2690,7 +2673,7 @@
         <v>8339361</v>
       </c>
       <c r="L52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2725,7 +2708,7 @@
         <v>8759626</v>
       </c>
       <c r="L53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2760,7 +2743,7 @@
         <v>12984367</v>
       </c>
       <c r="L54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2795,7 +2778,7 @@
         <v>6129292</v>
       </c>
       <c r="L55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2830,7 +2813,7 @@
         <v>5618754</v>
       </c>
       <c r="L56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2865,7 +2848,7 @@
         <v>7754930</v>
       </c>
       <c r="L57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2900,7 +2883,7 @@
         <v>7397239</v>
       </c>
       <c r="L58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2935,7 +2918,7 @@
         <v>4954339</v>
       </c>
       <c r="L59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2960,9 +2943,6 @@
       <c r="H60" t="s">
         <v>16</v>
       </c>
-      <c r="I60" t="s">
-        <v>45</v>
-      </c>
       <c r="J60">
         <v>0.537175925267663</v>
       </c>
@@ -2970,7 +2950,7 @@
         <v>14619173</v>
       </c>
       <c r="L60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2995,9 +2975,6 @@
       <c r="H61" t="s">
         <v>16</v>
       </c>
-      <c r="I61" t="s">
-        <v>45</v>
-      </c>
       <c r="J61">
         <v>3.4991312401593002</v>
       </c>
@@ -3005,7 +2982,7 @@
         <v>5623988</v>
       </c>
       <c r="L61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -3030,9 +3007,6 @@
       <c r="H62" t="s">
         <v>16</v>
       </c>
-      <c r="I62" t="s">
-        <v>45</v>
-      </c>
       <c r="J62">
         <v>2.12725900900901</v>
       </c>
@@ -3040,7 +3014,7 @@
         <v>6995745</v>
       </c>
       <c r="L62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -3072,7 +3046,7 @@
         <v>12664</v>
       </c>
       <c r="L63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_fullrun_hbrown_10.31.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_10.31.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E895C1C7-33B6-844A-99B0-999DC517BF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6097BC-CDE5-7347-BEE6-B589AEE1586D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="80">
   <si>
     <t>libraryDate</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>runNumber</t>
-  </si>
-  <si>
-    <t>laneNumber</t>
   </si>
   <si>
     <t>sequencerModel</t>
@@ -744,20 +741,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="1" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="1024" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,21 +776,19 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -807,14 +802,13 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -822,28 +816,28 @@
       <c r="D2" s="5">
         <v>3993</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2">
+        <v>4.7</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1.6903100532414701</v>
+      </c>
+      <c r="J2">
+        <v>8367714</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2">
-        <v>4.7</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1.6903100532414701</v>
-      </c>
-      <c r="K2">
-        <v>8367714</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -857,14 +851,13 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -872,35 +865,34 @@
       <c r="D3" s="5">
         <v>3993</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>16</v>
+      <c r="H3">
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>1.2328716877692201</v>
       </c>
       <c r="J3">
-        <v>1.2328716877692201</v>
-      </c>
-      <c r="K3">
         <v>6768054</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -908,37 +900,36 @@
       <c r="D4" s="5">
         <v>3993</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>16</v>
+      <c r="H4">
+        <v>43.2</v>
       </c>
       <c r="I4">
-        <v>43.2</v>
+        <v>1.2014284805698701</v>
       </c>
       <c r="J4">
-        <v>1.2014284805698701</v>
-      </c>
-      <c r="K4">
         <v>8564064</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -946,37 +937,36 @@
       <c r="D5" s="5">
         <v>3993</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>16</v>
+      <c r="H5">
+        <v>5.66</v>
       </c>
       <c r="I5">
-        <v>5.66</v>
+        <v>0.488426399598338</v>
       </c>
       <c r="J5">
-        <v>0.488426399598338</v>
-      </c>
-      <c r="K5">
         <v>14805356</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -984,37 +974,36 @@
       <c r="D6" s="5">
         <v>3993</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>16</v>
+      <c r="H6">
+        <v>3.55</v>
       </c>
       <c r="I6">
-        <v>3.55</v>
+        <v>0.64030704811761696</v>
       </c>
       <c r="J6">
-        <v>0.64030704811761696</v>
-      </c>
-      <c r="K6">
         <v>6911361</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -1022,37 +1011,36 @@
       <c r="D7" s="5">
         <v>3993</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>16</v>
+      <c r="H7">
+        <v>9.9</v>
       </c>
       <c r="I7">
-        <v>9.9</v>
+        <v>0.24796450535242001</v>
       </c>
       <c r="J7">
-        <v>0.24796450535242001</v>
-      </c>
-      <c r="K7">
         <v>14103190</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -1060,37 +1048,36 @@
       <c r="D8" s="5">
         <v>3993</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>16</v>
+      <c r="H8">
+        <v>1.25</v>
       </c>
       <c r="I8">
-        <v>1.25</v>
+        <v>7.5181326116373501</v>
       </c>
       <c r="J8">
-        <v>7.5181326116373501</v>
-      </c>
-      <c r="K8">
         <v>7305097</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
@@ -1098,37 +1085,36 @@
       <c r="D9" s="5">
         <v>3993</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>16</v>
+      <c r="H9">
+        <v>5.03</v>
       </c>
       <c r="I9">
-        <v>5.03</v>
+        <v>1.95272417078229</v>
       </c>
       <c r="J9">
-        <v>1.95272417078229</v>
-      </c>
-      <c r="K9">
         <v>8605604</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4">
         <v>9</v>
@@ -1136,37 +1122,36 @@
       <c r="D10" s="5">
         <v>3993</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>16</v>
+      <c r="H10">
+        <v>26.8</v>
       </c>
       <c r="I10">
-        <v>26.8</v>
+        <v>0.79396687962340295</v>
       </c>
       <c r="J10">
-        <v>0.79396687962340295</v>
-      </c>
-      <c r="K10">
         <v>5626777</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
@@ -1174,37 +1159,36 @@
       <c r="D11" s="5">
         <v>3993</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>16</v>
+      <c r="H11">
+        <v>19</v>
       </c>
       <c r="I11">
-        <v>19</v>
+        <v>0.92702851253864704</v>
       </c>
       <c r="J11">
-        <v>0.92702851253864704</v>
-      </c>
-      <c r="K11">
         <v>6109941</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -1212,37 +1196,36 @@
       <c r="D12" s="5">
         <v>3993</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>16</v>
+      <c r="H12">
+        <v>58</v>
       </c>
       <c r="I12">
-        <v>58</v>
+        <v>1.0143948018472799</v>
       </c>
       <c r="J12">
-        <v>1.0143948018472799</v>
-      </c>
-      <c r="K12">
         <v>6816187</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
         <v>12</v>
@@ -1250,37 +1233,36 @@
       <c r="D13" s="5">
         <v>3993</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>16</v>
+      <c r="H13">
+        <v>25.1</v>
       </c>
       <c r="I13">
-        <v>25.1</v>
+        <v>0.94634837933971205</v>
       </c>
       <c r="J13">
-        <v>0.94634837933971205</v>
-      </c>
-      <c r="K13">
         <v>4992167</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>13</v>
@@ -1288,36 +1270,35 @@
       <c r="D14" s="5">
         <v>3993</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>16</v>
+      <c r="H14">
+        <v>16.8</v>
       </c>
       <c r="I14">
-        <v>16.8</v>
+        <v>0.93496634329835704</v>
       </c>
       <c r="J14">
-        <v>0.93496634329835704</v>
-      </c>
-      <c r="K14">
         <v>8687308</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>14</v>
@@ -1325,36 +1306,35 @@
       <c r="D15" s="5">
         <v>3993</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>16</v>
+      <c r="H15">
+        <v>0.72099999999999997</v>
       </c>
       <c r="I15">
-        <v>0.72099999999999997</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
         <v>1850160</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4">
         <v>15</v>
@@ -1362,36 +1342,35 @@
       <c r="D16" s="5">
         <v>3993</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>16</v>
+      <c r="H16">
+        <v>26</v>
       </c>
       <c r="I16">
-        <v>26</v>
+        <v>1.01816741227834</v>
       </c>
       <c r="J16">
-        <v>1.01816741227834</v>
-      </c>
-      <c r="K16">
         <v>7087089</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
@@ -1399,36 +1378,35 @@
       <c r="D17" s="5">
         <v>3993</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>16</v>
+      <c r="H17">
+        <v>10.7</v>
       </c>
       <c r="I17">
-        <v>10.7</v>
+        <v>1.03350085951545</v>
       </c>
       <c r="J17">
-        <v>1.03350085951545</v>
-      </c>
-      <c r="K17">
         <v>7715340</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -1436,36 +1414,35 @@
       <c r="D18" s="5">
         <v>3993</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>16</v>
+      <c r="H18">
+        <v>23.9</v>
       </c>
       <c r="I18">
-        <v>23.9</v>
+        <v>0.82956655395019996</v>
       </c>
       <c r="J18">
-        <v>0.82956655395019996</v>
-      </c>
-      <c r="K18">
         <v>6896431</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -1473,36 +1450,35 @@
       <c r="D19" s="5">
         <v>3993</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>16</v>
+      <c r="H19">
+        <v>32</v>
       </c>
       <c r="I19">
-        <v>32</v>
+        <v>1.2494252265361501</v>
       </c>
       <c r="J19">
-        <v>1.2494252265361501</v>
-      </c>
-      <c r="K19">
         <v>6810270</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4">
         <v>19</v>
@@ -1510,36 +1486,35 @@
       <c r="D20" s="5">
         <v>3993</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>16</v>
+      <c r="H20">
+        <v>2.25</v>
       </c>
       <c r="I20">
-        <v>2.25</v>
+        <v>5.1220683437387704</v>
       </c>
       <c r="J20">
-        <v>5.1220683437387704</v>
-      </c>
-      <c r="K20">
         <v>9405571</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4">
         <v>20</v>
@@ -1547,36 +1522,35 @@
       <c r="D21" s="5">
         <v>3993</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>16</v>
+      <c r="H21">
+        <v>4.9800000000000004</v>
       </c>
       <c r="I21">
-        <v>4.9800000000000004</v>
+        <v>1.6583678306106899</v>
       </c>
       <c r="J21">
-        <v>1.6583678306106899</v>
-      </c>
-      <c r="K21">
         <v>3758051</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -1584,33 +1558,32 @@
       <c r="D22" s="5">
         <v>3993</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22">
+      <c r="H22">
         <v>0.36</v>
       </c>
-      <c r="K22">
+      <c r="J22">
         <v>1197</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4">
         <v>22</v>
@@ -1618,33 +1591,32 @@
       <c r="D23" s="5">
         <v>3993</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23">
+      <c r="H23">
         <v>0.26100000000000001</v>
       </c>
-      <c r="K23">
+      <c r="J23">
         <v>7185</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4">
         <v>23</v>
@@ -1652,33 +1624,32 @@
       <c r="D24" s="5">
         <v>3993</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F24" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24">
+      <c r="H24">
         <v>0.52300000000000002</v>
       </c>
-      <c r="K24">
+      <c r="J24">
         <v>3953</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="8"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4">
         <v>24</v>
@@ -1686,33 +1657,32 @@
       <c r="D25" s="5">
         <v>3993</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25">
+      <c r="H25">
         <v>0.32</v>
       </c>
-      <c r="K25">
+      <c r="J25">
         <v>5673</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O25" s="8"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4">
         <v>25</v>
@@ -1720,36 +1690,35 @@
       <c r="D26" s="5">
         <v>3993</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>16</v>
+      <c r="H26">
+        <v>10</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>1.11808582420835</v>
       </c>
       <c r="J26">
-        <v>1.11808582420835</v>
-      </c>
-      <c r="K26">
         <v>8532260</v>
       </c>
-      <c r="L26" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O26" s="8"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4">
         <v>26</v>
@@ -1757,33 +1726,32 @@
       <c r="D27" s="5">
         <v>3993</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27">
+      <c r="H27">
         <v>4.8</v>
       </c>
-      <c r="K27">
+      <c r="J27">
         <v>13757898</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O27" s="8"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -1791,26 +1759,26 @@
       <c r="D28" s="5">
         <v>3993</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F28" s="6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
+        <v>0.49476970625597499</v>
+      </c>
+      <c r="J28">
+        <v>14700309</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7">
-        <v>0.49476970625597499</v>
-      </c>
-      <c r="K28">
-        <v>14700309</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -1818,20 +1786,19 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="8"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1839,30 +1806,30 @@
       <c r="D29" s="5">
         <v>3993</v>
       </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29">
+        <v>15</v>
+      </c>
+      <c r="J29">
         <v>7759</v>
       </c>
-      <c r="L29" t="s">
-        <v>46</v>
-      </c>
-      <c r="U29" s="9"/>
-      <c r="V29" s="8"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>45</v>
+      </c>
+      <c r="T29" s="9"/>
+      <c r="U29" s="8"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1870,36 +1837,36 @@
       <c r="D30" s="5">
         <v>3993</v>
       </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <v>85.9</v>
       </c>
       <c r="I30">
-        <v>85.9</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30">
         <v>3673087</v>
       </c>
-      <c r="L30" t="s">
-        <v>47</v>
-      </c>
-      <c r="U30" s="9"/>
-      <c r="V30" s="8"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+      <c r="T30" s="9"/>
+      <c r="U30" s="8"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1907,33 +1874,33 @@
       <c r="D31" s="5">
         <v>3993</v>
       </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <v>0.64394273052667494</v>
       </c>
       <c r="J31">
-        <v>0.64394273052667494</v>
-      </c>
-      <c r="K31">
         <v>7651086</v>
       </c>
-      <c r="L31" t="s">
-        <v>48</v>
-      </c>
-      <c r="U31" s="9"/>
-      <c r="V31" s="8"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+      <c r="T31" s="9"/>
+      <c r="U31" s="8"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1941,36 +1908,36 @@
       <c r="D32" s="5">
         <v>3993</v>
       </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>252</v>
       </c>
       <c r="I32">
-        <v>252</v>
+        <v>6.6118515925796304</v>
       </c>
       <c r="J32">
-        <v>6.6118515925796304</v>
-      </c>
-      <c r="K32">
         <v>3211556</v>
       </c>
-      <c r="L32" t="s">
-        <v>49</v>
-      </c>
-      <c r="U32" s="9"/>
-      <c r="V32" s="8"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>48</v>
+      </c>
+      <c r="T32" s="9"/>
+      <c r="U32" s="8"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1978,36 +1945,36 @@
       <c r="D33" s="5">
         <v>3993</v>
       </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>153</v>
       </c>
       <c r="I33">
-        <v>153</v>
+        <v>8.1881491114000902</v>
       </c>
       <c r="J33">
-        <v>8.1881491114000902</v>
-      </c>
-      <c r="K33">
         <v>4764788</v>
       </c>
-      <c r="L33" t="s">
-        <v>50</v>
-      </c>
-      <c r="U33" s="9"/>
-      <c r="V33" s="8"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>49</v>
+      </c>
+      <c r="T33" s="9"/>
+      <c r="U33" s="8"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -2015,36 +1982,36 @@
       <c r="D34" s="5">
         <v>3993</v>
       </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>27.8</v>
       </c>
       <c r="I34">
-        <v>27.8</v>
+        <v>6.37316464237517</v>
       </c>
       <c r="J34">
-        <v>6.37316464237517</v>
-      </c>
-      <c r="K34">
         <v>5795801</v>
       </c>
-      <c r="L34" t="s">
-        <v>51</v>
-      </c>
-      <c r="U34" s="9"/>
-      <c r="V34" s="8"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>50</v>
+      </c>
+      <c r="T34" s="9"/>
+      <c r="U34" s="8"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -2052,36 +2019,36 @@
       <c r="D35" s="5">
         <v>3993</v>
       </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>49.7</v>
       </c>
       <c r="I35">
-        <v>49.7</v>
+        <v>7.1283245283018903</v>
       </c>
       <c r="J35">
-        <v>7.1283245283018903</v>
-      </c>
-      <c r="K35">
         <v>4712895</v>
       </c>
-      <c r="L35" t="s">
-        <v>52</v>
-      </c>
-      <c r="U35" s="9"/>
-      <c r="V35" s="8"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>51</v>
+      </c>
+      <c r="T35" s="9"/>
+      <c r="U35" s="8"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -2089,36 +2056,36 @@
       <c r="D36" s="5">
         <v>3993</v>
       </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>78.8</v>
       </c>
       <c r="I36">
-        <v>78.8</v>
+        <v>6.7901006470165397</v>
       </c>
       <c r="J36">
-        <v>6.7901006470165397</v>
-      </c>
-      <c r="K36">
         <v>4865879</v>
       </c>
-      <c r="L36" t="s">
-        <v>53</v>
-      </c>
-      <c r="U36" s="9"/>
-      <c r="V36" s="8"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>52</v>
+      </c>
+      <c r="T36" s="9"/>
+      <c r="U36" s="8"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -2126,36 +2093,36 @@
       <c r="D37" s="5">
         <v>3993</v>
       </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>67.099999999999994</v>
       </c>
       <c r="I37">
-        <v>67.099999999999994</v>
+        <v>7.3132249322493204</v>
       </c>
       <c r="J37">
-        <v>7.3132249322493204</v>
-      </c>
-      <c r="K37">
         <v>5100151</v>
       </c>
-      <c r="L37" t="s">
-        <v>54</v>
-      </c>
-      <c r="U37" s="9"/>
-      <c r="V37" s="8"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>53</v>
+      </c>
+      <c r="T37" s="9"/>
+      <c r="U37" s="8"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>11</v>
@@ -2163,110 +2130,110 @@
       <c r="D38" s="5">
         <v>3993</v>
       </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>155</v>
       </c>
       <c r="I38">
-        <v>155</v>
+        <v>6.5522233784252499</v>
       </c>
       <c r="J38">
-        <v>6.5522233784252499</v>
-      </c>
-      <c r="K38">
         <v>4337625</v>
       </c>
-      <c r="L38" t="s">
+      <c r="K38" t="s">
+        <v>54</v>
+      </c>
+      <c r="T38" s="9"/>
+      <c r="U38" s="8"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3993</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>298</v>
+      </c>
+      <c r="I39">
+        <v>9.4167796610169496</v>
+      </c>
+      <c r="J39">
+        <v>3296083</v>
+      </c>
+      <c r="K39" t="s">
         <v>55</v>
       </c>
-      <c r="U38" s="9"/>
-      <c r="V38" s="8"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39">
-        <v>12</v>
-      </c>
-      <c r="D39" s="5">
-        <v>3993</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39">
-        <v>298</v>
-      </c>
-      <c r="J39">
-        <v>9.4167796610169496</v>
-      </c>
-      <c r="K39">
-        <v>3296083</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="T39" s="9"/>
+      <c r="U39" s="8"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3993</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>13.2</v>
+      </c>
+      <c r="I40">
+        <v>5.58877514792899</v>
+      </c>
+      <c r="J40">
+        <v>4556518</v>
+      </c>
+      <c r="K40" t="s">
         <v>56</v>
       </c>
-      <c r="U39" s="9"/>
-      <c r="V39" s="8"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40">
-        <v>13</v>
-      </c>
-      <c r="D40" s="5">
-        <v>3993</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40">
-        <v>13.2</v>
-      </c>
-      <c r="J40">
-        <v>5.58877514792899</v>
-      </c>
-      <c r="K40">
-        <v>4556518</v>
-      </c>
-      <c r="L40" t="s">
-        <v>57</v>
-      </c>
-      <c r="U40" s="9"/>
-      <c r="V40" s="8"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T40" s="9"/>
+      <c r="U40" s="8"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>14</v>
@@ -2274,70 +2241,70 @@
       <c r="D41" s="5">
         <v>3993</v>
       </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>3.51</v>
       </c>
       <c r="I41">
-        <v>3.51</v>
+        <v>13.474670695501899</v>
       </c>
       <c r="J41">
-        <v>13.474670695501899</v>
-      </c>
-      <c r="K41">
         <v>2740739</v>
       </c>
-      <c r="L41" t="s">
+      <c r="K41" t="s">
+        <v>57</v>
+      </c>
+      <c r="T41" s="9"/>
+      <c r="U41" s="8"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3993</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42">
+        <v>0.60955340432397598</v>
+      </c>
+      <c r="J42">
+        <v>9722870</v>
+      </c>
+      <c r="K42" t="s">
         <v>58</v>
       </c>
-      <c r="U41" s="9"/>
-      <c r="V41" s="8"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42">
-        <v>15</v>
-      </c>
-      <c r="D42" s="5">
-        <v>3993</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42">
-        <v>0.60955340432397598</v>
-      </c>
-      <c r="K42">
-        <v>9722870</v>
-      </c>
-      <c r="L42" t="s">
-        <v>59</v>
-      </c>
-      <c r="U42" s="9"/>
-      <c r="V42" s="10"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T42" s="9"/>
+      <c r="U42" s="10"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -2345,34 +2312,34 @@
       <c r="D43" s="5">
         <v>3993</v>
       </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>12.5</v>
       </c>
       <c r="I43">
-        <v>12.5</v>
+        <v>1.0396862788265699</v>
       </c>
       <c r="J43">
-        <v>1.0396862788265699</v>
-      </c>
-      <c r="K43">
         <v>6048438</v>
       </c>
-      <c r="L43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>17</v>
@@ -2380,34 +2347,34 @@
       <c r="D44" s="5">
         <v>3993</v>
       </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H44">
+        <v>17.3</v>
       </c>
       <c r="I44">
-        <v>17.3</v>
+        <v>1.01189522176987</v>
       </c>
       <c r="J44">
-        <v>1.01189522176987</v>
-      </c>
-      <c r="K44">
         <v>6939601</v>
       </c>
-      <c r="L44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>18</v>
@@ -2415,34 +2382,34 @@
       <c r="D45" s="5">
         <v>3993</v>
       </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H45">
+        <v>8.91</v>
       </c>
       <c r="I45">
-        <v>8.91</v>
+        <v>1.1959028208276099</v>
       </c>
       <c r="J45">
-        <v>1.1959028208276099</v>
-      </c>
-      <c r="K45">
         <v>7347060</v>
       </c>
-      <c r="L45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46">
         <v>19</v>
@@ -2450,34 +2417,34 @@
       <c r="D46" s="5">
         <v>3993</v>
       </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>7.43</v>
       </c>
       <c r="I46">
-        <v>7.43</v>
+        <v>1.64866336068093</v>
       </c>
       <c r="J46">
-        <v>1.64866336068093</v>
-      </c>
-      <c r="K46">
         <v>5521155</v>
       </c>
-      <c r="L46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -2485,34 +2452,34 @@
       <c r="D47" s="5">
         <v>3993</v>
       </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>3.79</v>
       </c>
       <c r="I47">
-        <v>3.79</v>
+        <v>2.9179700817106302</v>
       </c>
       <c r="J47">
-        <v>2.9179700817106302</v>
-      </c>
-      <c r="K47">
         <v>5138175</v>
       </c>
-      <c r="L47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>21</v>
@@ -2520,31 +2487,31 @@
       <c r="D48" s="5">
         <v>3993</v>
       </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48">
+        <v>15</v>
+      </c>
+      <c r="H48">
         <v>0.23599999999999999</v>
       </c>
-      <c r="K48">
+      <c r="J48">
         <v>1895</v>
       </c>
-      <c r="L48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49">
         <v>22</v>
@@ -2552,34 +2519,34 @@
       <c r="D49" s="5">
         <v>3993</v>
       </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>1.1399999999999999</v>
       </c>
       <c r="I49">
-        <v>1.1399999999999999</v>
+        <v>8.9685744807121708</v>
       </c>
       <c r="J49">
-        <v>8.9685744807121708</v>
-      </c>
-      <c r="K49">
         <v>3561994</v>
       </c>
-      <c r="L49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>23</v>
@@ -2587,31 +2554,31 @@
       <c r="D50" s="5">
         <v>3993</v>
       </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="I50">
+        <v>6.2945884705098303</v>
       </c>
       <c r="J50">
-        <v>6.2945884705098303</v>
-      </c>
-      <c r="K50">
         <v>5965762</v>
       </c>
-      <c r="L50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51">
         <v>24</v>
@@ -2619,34 +2586,34 @@
       <c r="D51" s="5">
         <v>3993</v>
       </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H51" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>1.1399999999999999</v>
       </c>
       <c r="I51">
-        <v>1.1399999999999999</v>
+        <v>10.4278553684792</v>
       </c>
       <c r="J51">
-        <v>10.4278553684792</v>
-      </c>
-      <c r="K51">
         <v>3260089</v>
       </c>
-      <c r="L51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52">
         <v>25</v>
@@ -2654,34 +2621,34 @@
       <c r="D52" s="5">
         <v>3993</v>
       </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H52">
+        <v>13</v>
       </c>
       <c r="I52">
-        <v>13</v>
+        <v>1.0524296618196001</v>
       </c>
       <c r="J52">
-        <v>1.0524296618196001</v>
-      </c>
-      <c r="K52">
         <v>8339361</v>
       </c>
-      <c r="L52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <v>26</v>
@@ -2689,34 +2656,34 @@
       <c r="D53" s="5">
         <v>3993</v>
       </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53">
         <v>16</v>
       </c>
       <c r="I53">
-        <v>16</v>
+        <v>1.2183991228070199</v>
       </c>
       <c r="J53">
-        <v>1.2183991228070199</v>
-      </c>
-      <c r="K53">
         <v>8759626</v>
       </c>
-      <c r="L53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54">
         <v>27</v>
@@ -2724,34 +2691,34 @@
       <c r="D54" s="5">
         <v>3993</v>
       </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H54">
+        <v>31.1</v>
       </c>
       <c r="I54">
-        <v>31.1</v>
+        <v>1.0974936091099201</v>
       </c>
       <c r="J54">
-        <v>1.0974936091099201</v>
-      </c>
-      <c r="K54">
         <v>12984367</v>
       </c>
-      <c r="L54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55">
         <v>28</v>
@@ -2759,34 +2726,34 @@
       <c r="D55" s="5">
         <v>3993</v>
       </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>10.4</v>
       </c>
       <c r="I55">
-        <v>10.4</v>
+        <v>0.91014502529510999</v>
       </c>
       <c r="J55">
-        <v>0.91014502529510999</v>
-      </c>
-      <c r="K55">
         <v>6129292</v>
       </c>
-      <c r="L55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56">
         <v>29</v>
@@ -2794,34 +2761,34 @@
       <c r="D56" s="5">
         <v>3993</v>
       </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
-      </c>
-      <c r="H56" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H56">
+        <v>14.3</v>
       </c>
       <c r="I56">
-        <v>14.3</v>
+        <v>0.96748066581306003</v>
       </c>
       <c r="J56">
-        <v>0.96748066581306003</v>
-      </c>
-      <c r="K56">
         <v>5618754</v>
       </c>
-      <c r="L56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57">
         <v>30</v>
@@ -2829,34 +2796,34 @@
       <c r="D57" s="5">
         <v>3993</v>
       </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H57">
+        <v>2.0299999999999998</v>
       </c>
       <c r="I57">
-        <v>2.0299999999999998</v>
+        <v>5.5631304333485199</v>
       </c>
       <c r="J57">
-        <v>5.5631304333485199</v>
-      </c>
-      <c r="K57">
         <v>7754930</v>
       </c>
-      <c r="L57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58">
         <v>31</v>
@@ -2864,34 +2831,34 @@
       <c r="D58" s="5">
         <v>3993</v>
       </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
-      </c>
-      <c r="H58" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H58">
+        <v>27.5</v>
       </c>
       <c r="I58">
-        <v>27.5</v>
+        <v>1.1051342654887999</v>
       </c>
       <c r="J58">
-        <v>1.1051342654887999</v>
-      </c>
-      <c r="K58">
         <v>7397239</v>
       </c>
-      <c r="L58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59">
         <v>32</v>
@@ -2899,34 +2866,34 @@
       <c r="D59" s="5">
         <v>3993</v>
       </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
-      </c>
-      <c r="H59" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H59">
+        <v>5.82</v>
       </c>
       <c r="I59">
-        <v>5.82</v>
+        <v>2.1300136347501701</v>
       </c>
       <c r="J59">
-        <v>2.1300136347501701</v>
-      </c>
-      <c r="K59">
         <v>4954339</v>
       </c>
-      <c r="L59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60">
         <v>33</v>
@@ -2934,31 +2901,31 @@
       <c r="D60" s="5">
         <v>3993</v>
       </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
-      </c>
-      <c r="H60" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="I60">
+        <v>0.537175925267663</v>
       </c>
       <c r="J60">
-        <v>0.537175925267663</v>
-      </c>
-      <c r="K60">
         <v>14619173</v>
       </c>
-      <c r="L60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61">
         <v>34</v>
@@ -2966,31 +2933,31 @@
       <c r="D61" s="5">
         <v>3993</v>
       </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
-      </c>
-      <c r="H61" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="I61">
+        <v>3.4991312401593002</v>
       </c>
       <c r="J61">
-        <v>3.4991312401593002</v>
-      </c>
-      <c r="K61">
         <v>5623988</v>
       </c>
-      <c r="L61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62">
         <v>35</v>
@@ -2998,31 +2965,31 @@
       <c r="D62" s="5">
         <v>3993</v>
       </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
-      </c>
-      <c r="H62" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="I62">
+        <v>2.12725900900901</v>
       </c>
       <c r="J62">
-        <v>2.12725900900901</v>
-      </c>
-      <c r="K62">
         <v>6995745</v>
       </c>
-      <c r="L62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63">
         <v>36</v>
@@ -3030,23 +2997,23 @@
       <c r="D63" s="5">
         <v>3993</v>
       </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63">
+        <v>15</v>
+      </c>
+      <c r="H63">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K63">
+      <c r="J63">
         <v>12664</v>
       </c>
-      <c r="L63" t="s">
-        <v>80</v>
+      <c r="K63" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_fullrun_hbrown_10.31.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_10.31.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6097BC-CDE5-7347-BEE6-B589AEE1586D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD48214-DCA3-CB47-B4AB-F42F1DE03260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>fastqFileName</t>
   </si>
   <si>
-    <t>08.15.19</t>
-  </si>
-  <si>
     <t>H.BROWN</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>Brent_4a_GTAC_36_SIC_Index2_07_TGGCATA_GAGTTGGT_S63_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>08.19.19</t>
   </si>
 </sst>
 </file>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,10 +805,10 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -817,13 +817,13 @@
         <v>3993</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>4.7</v>
@@ -835,7 +835,7 @@
         <v>8367714</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -854,10 +854,10 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -866,13 +866,13 @@
         <v>3993</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -884,15 +884,15 @@
         <v>6768054</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -901,13 +901,13 @@
         <v>3993</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>43.2</v>
@@ -919,17 +919,17 @@
         <v>8564064</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -938,13 +938,13 @@
         <v>3993</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>5.66</v>
@@ -956,17 +956,17 @@
         <v>14805356</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -975,13 +975,13 @@
         <v>3993</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>3.55</v>
@@ -993,17 +993,17 @@
         <v>6911361</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -1012,13 +1012,13 @@
         <v>3993</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7">
         <v>9.9</v>
@@ -1030,17 +1030,17 @@
         <v>14103190</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -1049,13 +1049,13 @@
         <v>3993</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8">
         <v>1.25</v>
@@ -1067,17 +1067,17 @@
         <v>7305097</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
@@ -1086,13 +1086,13 @@
         <v>3993</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9">
         <v>5.03</v>
@@ -1104,17 +1104,17 @@
         <v>8605604</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
         <v>9</v>
@@ -1123,13 +1123,13 @@
         <v>3993</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>26.8</v>
@@ -1141,17 +1141,17 @@
         <v>5626777</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
@@ -1160,13 +1160,13 @@
         <v>3993</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>19</v>
@@ -1178,17 +1178,17 @@
         <v>6109941</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -1197,13 +1197,13 @@
         <v>3993</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12">
         <v>58</v>
@@ -1215,17 +1215,17 @@
         <v>6816187</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4">
         <v>12</v>
@@ -1234,13 +1234,13 @@
         <v>3993</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <v>25.1</v>
@@ -1252,17 +1252,17 @@
         <v>4992167</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4">
         <v>13</v>
@@ -1271,13 +1271,13 @@
         <v>3993</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14">
         <v>16.8</v>
@@ -1289,16 +1289,16 @@
         <v>8687308</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4">
         <v>14</v>
@@ -1307,13 +1307,13 @@
         <v>3993</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15">
         <v>0.72099999999999997</v>
@@ -1325,16 +1325,16 @@
         <v>1850160</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4">
         <v>15</v>
@@ -1343,13 +1343,13 @@
         <v>3993</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16">
         <v>26</v>
@@ -1361,16 +1361,16 @@
         <v>7087089</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
@@ -1379,13 +1379,13 @@
         <v>3993</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17">
         <v>10.7</v>
@@ -1397,16 +1397,16 @@
         <v>7715340</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -1415,13 +1415,13 @@
         <v>3993</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18">
         <v>23.9</v>
@@ -1433,16 +1433,16 @@
         <v>6896431</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -1451,13 +1451,13 @@
         <v>3993</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19">
         <v>32</v>
@@ -1469,16 +1469,16 @@
         <v>6810270</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4">
         <v>19</v>
@@ -1487,13 +1487,13 @@
         <v>3993</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G20" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20">
         <v>2.25</v>
@@ -1505,16 +1505,16 @@
         <v>9405571</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4">
         <v>20</v>
@@ -1523,13 +1523,13 @@
         <v>3993</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21">
         <v>4.9800000000000004</v>
@@ -1541,16 +1541,16 @@
         <v>3758051</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -1559,13 +1559,13 @@
         <v>3993</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G22" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22">
         <v>0.36</v>
@@ -1574,16 +1574,16 @@
         <v>1197</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4">
         <v>22</v>
@@ -1592,13 +1592,13 @@
         <v>3993</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G23" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23">
         <v>0.26100000000000001</v>
@@ -1607,16 +1607,16 @@
         <v>7185</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="4">
         <v>23</v>
@@ -1625,13 +1625,13 @@
         <v>3993</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24">
         <v>0.52300000000000002</v>
@@ -1640,16 +1640,16 @@
         <v>3953</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4">
         <v>24</v>
@@ -1658,13 +1658,13 @@
         <v>3993</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G25" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>0.32</v>
@@ -1673,16 +1673,16 @@
         <v>5673</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4">
         <v>25</v>
@@ -1691,13 +1691,13 @@
         <v>3993</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G26" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>10</v>
@@ -1709,16 +1709,16 @@
         <v>8532260</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4">
         <v>26</v>
@@ -1727,13 +1727,13 @@
         <v>3993</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27">
         <v>4.8</v>
@@ -1742,16 +1742,16 @@
         <v>13757898</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -1760,13 +1760,13 @@
         <v>3993</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7">
@@ -1776,7 +1776,7 @@
         <v>14700309</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1795,10 +1795,10 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1807,29 +1807,29 @@
         <v>3993</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J29">
         <v>7759</v>
       </c>
       <c r="K29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T29" s="9"/>
       <c r="U29" s="8"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1838,13 +1838,13 @@
         <v>3993</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30">
         <v>85.9</v>
@@ -1856,17 +1856,17 @@
         <v>3673087</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T30" s="9"/>
       <c r="U30" s="8"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1875,13 +1875,13 @@
         <v>3993</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31">
         <v>0.64394273052667494</v>
@@ -1890,17 +1890,17 @@
         <v>7651086</v>
       </c>
       <c r="K31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T31" s="9"/>
       <c r="U31" s="8"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1909,13 +1909,13 @@
         <v>3993</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32">
         <v>252</v>
@@ -1927,17 +1927,17 @@
         <v>3211556</v>
       </c>
       <c r="K32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T32" s="9"/>
       <c r="U32" s="8"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1946,13 +1946,13 @@
         <v>3993</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33">
         <v>153</v>
@@ -1964,17 +1964,17 @@
         <v>4764788</v>
       </c>
       <c r="K33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T33" s="9"/>
       <c r="U33" s="8"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -1983,13 +1983,13 @@
         <v>3993</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34">
         <v>27.8</v>
@@ -2001,17 +2001,17 @@
         <v>5795801</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="8"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -2020,13 +2020,13 @@
         <v>3993</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35">
         <v>49.7</v>
@@ -2038,17 +2038,17 @@
         <v>4712895</v>
       </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T35" s="9"/>
       <c r="U35" s="8"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -2057,13 +2057,13 @@
         <v>3993</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36">
         <v>78.8</v>
@@ -2075,17 +2075,17 @@
         <v>4865879</v>
       </c>
       <c r="K36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T36" s="9"/>
       <c r="U36" s="8"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -2094,13 +2094,13 @@
         <v>3993</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H37">
         <v>67.099999999999994</v>
@@ -2112,17 +2112,17 @@
         <v>5100151</v>
       </c>
       <c r="K37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T37" s="9"/>
       <c r="U37" s="8"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>11</v>
@@ -2131,13 +2131,13 @@
         <v>3993</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38">
         <v>155</v>
@@ -2149,17 +2149,17 @@
         <v>4337625</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T38" s="9"/>
       <c r="U38" s="8"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -2168,13 +2168,13 @@
         <v>3993</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H39">
         <v>298</v>
@@ -2186,17 +2186,17 @@
         <v>3296083</v>
       </c>
       <c r="K39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T39" s="9"/>
       <c r="U39" s="8"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <v>13</v>
@@ -2205,13 +2205,13 @@
         <v>3993</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H40">
         <v>13.2</v>
@@ -2223,17 +2223,17 @@
         <v>4556518</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T40" s="9"/>
       <c r="U40" s="8"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <v>14</v>
@@ -2242,13 +2242,13 @@
         <v>3993</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H41">
         <v>3.51</v>
@@ -2260,17 +2260,17 @@
         <v>2740739</v>
       </c>
       <c r="K41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T41" s="9"/>
       <c r="U41" s="8"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -2279,13 +2279,13 @@
         <v>3993</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I42">
         <v>0.60955340432397598</v>
@@ -2294,17 +2294,17 @@
         <v>9722870</v>
       </c>
       <c r="K42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T42" s="9"/>
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -2313,13 +2313,13 @@
         <v>3993</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H43">
         <v>12.5</v>
@@ -2331,15 +2331,15 @@
         <v>6048438</v>
       </c>
       <c r="K43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>17</v>
@@ -2348,13 +2348,13 @@
         <v>3993</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H44">
         <v>17.3</v>
@@ -2366,15 +2366,15 @@
         <v>6939601</v>
       </c>
       <c r="K44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45">
         <v>18</v>
@@ -2383,13 +2383,13 @@
         <v>3993</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H45">
         <v>8.91</v>
@@ -2401,15 +2401,15 @@
         <v>7347060</v>
       </c>
       <c r="K45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>19</v>
@@ -2418,13 +2418,13 @@
         <v>3993</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46">
         <v>7.43</v>
@@ -2436,15 +2436,15 @@
         <v>5521155</v>
       </c>
       <c r="K46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -2453,13 +2453,13 @@
         <v>3993</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47">
         <v>3.79</v>
@@ -2471,15 +2471,15 @@
         <v>5138175</v>
       </c>
       <c r="K47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48">
         <v>21</v>
@@ -2488,13 +2488,13 @@
         <v>3993</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48">
         <v>0.23599999999999999</v>
@@ -2503,15 +2503,15 @@
         <v>1895</v>
       </c>
       <c r="K48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>22</v>
@@ -2520,13 +2520,13 @@
         <v>3993</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49">
         <v>1.1399999999999999</v>
@@ -2538,15 +2538,15 @@
         <v>3561994</v>
       </c>
       <c r="K49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>23</v>
@@ -2555,13 +2555,13 @@
         <v>3993</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I50">
         <v>6.2945884705098303</v>
@@ -2570,15 +2570,15 @@
         <v>5965762</v>
       </c>
       <c r="K50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <v>24</v>
@@ -2587,13 +2587,13 @@
         <v>3993</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H51">
         <v>1.1399999999999999</v>
@@ -2605,15 +2605,15 @@
         <v>3260089</v>
       </c>
       <c r="K51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <v>25</v>
@@ -2622,13 +2622,13 @@
         <v>3993</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52">
         <v>13</v>
@@ -2640,15 +2640,15 @@
         <v>8339361</v>
       </c>
       <c r="K52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>26</v>
@@ -2657,13 +2657,13 @@
         <v>3993</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53">
         <v>16</v>
@@ -2675,15 +2675,15 @@
         <v>8759626</v>
       </c>
       <c r="K53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54">
         <v>27</v>
@@ -2692,13 +2692,13 @@
         <v>3993</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54">
         <v>31.1</v>
@@ -2710,15 +2710,15 @@
         <v>12984367</v>
       </c>
       <c r="K54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <v>28</v>
@@ -2727,13 +2727,13 @@
         <v>3993</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55">
         <v>10.4</v>
@@ -2745,15 +2745,15 @@
         <v>6129292</v>
       </c>
       <c r="K55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56">
         <v>29</v>
@@ -2762,13 +2762,13 @@
         <v>3993</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H56">
         <v>14.3</v>
@@ -2780,15 +2780,15 @@
         <v>5618754</v>
       </c>
       <c r="K56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57">
         <v>30</v>
@@ -2797,13 +2797,13 @@
         <v>3993</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H57">
         <v>2.0299999999999998</v>
@@ -2815,15 +2815,15 @@
         <v>7754930</v>
       </c>
       <c r="K57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58">
         <v>31</v>
@@ -2832,13 +2832,13 @@
         <v>3993</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58">
         <v>27.5</v>
@@ -2850,15 +2850,15 @@
         <v>7397239</v>
       </c>
       <c r="K58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59">
         <v>32</v>
@@ -2867,13 +2867,13 @@
         <v>3993</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H59">
         <v>5.82</v>
@@ -2885,15 +2885,15 @@
         <v>4954339</v>
       </c>
       <c r="K59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60">
         <v>33</v>
@@ -2902,13 +2902,13 @@
         <v>3993</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I60">
         <v>0.537175925267663</v>
@@ -2917,15 +2917,15 @@
         <v>14619173</v>
       </c>
       <c r="K60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61">
         <v>34</v>
@@ -2934,13 +2934,13 @@
         <v>3993</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I61">
         <v>3.4991312401593002</v>
@@ -2949,15 +2949,15 @@
         <v>5623988</v>
       </c>
       <c r="K61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62">
         <v>35</v>
@@ -2966,13 +2966,13 @@
         <v>3993</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I62">
         <v>2.12725900900901</v>
@@ -2981,15 +2981,15 @@
         <v>6995745</v>
       </c>
       <c r="K62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63">
         <v>36</v>
@@ -2998,13 +2998,13 @@
         <v>3993</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H63">
         <v>3.4000000000000002E-2</v>
@@ -3013,7 +3013,7 @@
         <v>12664</v>
       </c>
       <c r="K63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
